--- a/data/training_videos.xlsx
+++ b/data/training_videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82249B3-BBC7-BD43-8109-A2B0AB9329B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DAC0E8-7634-E64F-9045-C16824FA38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,11 +23,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet6!$A$2:$C$92</definedName>
   </definedNames>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="425">
   <si>
     <t xml:space="preserve"> Arrangements  </t>
   </si>
@@ -458,15 +469,9 @@
     <t>Show File Handling</t>
   </si>
   <si>
-    <t>Core skill. Saving and restoring show files is a good thing for all to know.</t>
-  </si>
-  <si>
     <t>Record to Playback Sequence</t>
   </si>
   <si>
-    <t>We could occasionally use a Sequence to automate a complicated set of steps.</t>
-  </si>
-  <si>
     <t>Edit Cues and Sequences</t>
   </si>
   <si>
@@ -476,9 +481,6 @@
     <t>May not be relevant to current fixtures</t>
   </si>
   <si>
-    <t>Cues are useful when you want to completely change the look quickly and you can plan ahead.</t>
-  </si>
-  <si>
     <t>Patching - Add Dimmer</t>
   </si>
   <si>
@@ -962,9 +964,6 @@
     <t>Volunteer Operator's Guide To ProPresenter 7</t>
   </si>
   <si>
-    <t>33:21</t>
-  </si>
-  <si>
     <t>1:13:38</t>
   </si>
   <si>
@@ -989,51 +988,30 @@
     <t>Not relevant to UAC</t>
   </si>
   <si>
-    <t>7:40</t>
-  </si>
-  <si>
     <t>Screen Configuration</t>
   </si>
   <si>
-    <t>5:17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interface Overview </t>
   </si>
   <si>
     <t>Search</t>
   </si>
   <si>
-    <t>3:43</t>
-  </si>
-  <si>
     <t>The Announcements Layer</t>
   </si>
   <si>
-    <t>3:56</t>
-  </si>
-  <si>
     <t>Show Controls (Audio, Stage Controls, Timers, Messages, Props)</t>
   </si>
   <si>
-    <t>13:37</t>
-  </si>
-  <si>
     <t>How to use Timers &amp; Countdowns</t>
   </si>
   <si>
-    <t>10:24</t>
-  </si>
-  <si>
     <t>ProPresenter7</t>
   </si>
   <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219261</t>
   </si>
   <si>
-    <t>6:11</t>
-  </si>
-  <si>
     <t>Using the Presentation Editor</t>
   </si>
   <si>
@@ -1043,15 +1021,9 @@
     <t>Stage Screens</t>
   </si>
   <si>
-    <t>5:06</t>
-  </si>
-  <si>
     <t>Looks</t>
   </si>
   <si>
-    <t>5:41</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219263</t>
   </si>
   <si>
@@ -1061,42 +1033,27 @@
     <t>Using Bibles</t>
   </si>
   <si>
-    <t>3:42</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219265</t>
   </si>
   <si>
     <t>Working with Audio</t>
   </si>
   <si>
-    <t>3:44</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219247</t>
   </si>
   <si>
     <t>How to use Macros</t>
   </si>
   <si>
-    <t>12:55</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219267</t>
   </si>
   <si>
     <t>Easyview</t>
   </si>
   <si>
-    <t>1:41</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219274</t>
   </si>
   <si>
-    <t>10:59</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219275</t>
   </si>
   <si>
@@ -1106,24 +1063,15 @@
     <t>ATEM + ProPresenter</t>
   </si>
   <si>
-    <t>19:51</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#219278</t>
   </si>
   <si>
-    <t>7:19</t>
-  </si>
-  <si>
     <t>Operator View</t>
   </si>
   <si>
     <t>Working with text across multiple screens</t>
   </si>
   <si>
-    <t>9:33</t>
-  </si>
-  <si>
     <t>https://renewedvision.com/propresenter/tutorials/#220536</t>
   </si>
   <si>
@@ -1134,6 +1082,246 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>0:22:05</t>
+  </si>
+  <si>
+    <t>0:7:31</t>
+  </si>
+  <si>
+    <t>0:10:55</t>
+  </si>
+  <si>
+    <t>0:3:34</t>
+  </si>
+  <si>
+    <t>0:7:05</t>
+  </si>
+  <si>
+    <t>0:9:10</t>
+  </si>
+  <si>
+    <t>0:5:27</t>
+  </si>
+  <si>
+    <t>0:9:37</t>
+  </si>
+  <si>
+    <t>0:0:51</t>
+  </si>
+  <si>
+    <t>0:8:32</t>
+  </si>
+  <si>
+    <t>0:7:28</t>
+  </si>
+  <si>
+    <t>0:5:09</t>
+  </si>
+  <si>
+    <t>0:2:27</t>
+  </si>
+  <si>
+    <t>0:7:23</t>
+  </si>
+  <si>
+    <t>0:6:54</t>
+  </si>
+  <si>
+    <t>0:7:29</t>
+  </si>
+  <si>
+    <t>0:12:38</t>
+  </si>
+  <si>
+    <t>0:33:21</t>
+  </si>
+  <si>
+    <t>0:7:40</t>
+  </si>
+  <si>
+    <t>0:3:43</t>
+  </si>
+  <si>
+    <t>0:13:37</t>
+  </si>
+  <si>
+    <t>0:6:11</t>
+  </si>
+  <si>
+    <t>0:3:42</t>
+  </si>
+  <si>
+    <t>0:1:41</t>
+  </si>
+  <si>
+    <t>0:10:24</t>
+  </si>
+  <si>
+    <t>0:5:06</t>
+  </si>
+  <si>
+    <t>0:5:41</t>
+  </si>
+  <si>
+    <t>0:3:44</t>
+  </si>
+  <si>
+    <t>0:12:55</t>
+  </si>
+  <si>
+    <t>0:9:33</t>
+  </si>
+  <si>
+    <t>0:5:17</t>
+  </si>
+  <si>
+    <t>0:3:56</t>
+  </si>
+  <si>
+    <t>0:10:59</t>
+  </si>
+  <si>
+    <t>0:19:51</t>
+  </si>
+  <si>
+    <t>0:7:19</t>
+  </si>
+  <si>
+    <t>0:07:01</t>
+  </si>
+  <si>
+    <t>0:02:38</t>
+  </si>
+  <si>
+    <t>0:03:36</t>
+  </si>
+  <si>
+    <t>0:08:40</t>
+  </si>
+  <si>
+    <t>0:08:00</t>
+  </si>
+  <si>
+    <t>0:10:31</t>
+  </si>
+  <si>
+    <t>0:09:38</t>
+  </si>
+  <si>
+    <t>0:06:08</t>
+  </si>
+  <si>
+    <t>0:06:00</t>
+  </si>
+  <si>
+    <t>0:10:33</t>
+  </si>
+  <si>
+    <t>0:05:41</t>
+  </si>
+  <si>
+    <t>0:04:40</t>
+  </si>
+  <si>
+    <t>0:09:14</t>
+  </si>
+  <si>
+    <t>0:04:13</t>
+  </si>
+  <si>
+    <t>0:01:48</t>
+  </si>
+  <si>
+    <t>0:09:48</t>
+  </si>
+  <si>
+    <t>0:07:18</t>
+  </si>
+  <si>
+    <t>0:06:52</t>
+  </si>
+  <si>
+    <t>0:05:47</t>
+  </si>
+  <si>
+    <t>0:07:36</t>
+  </si>
+  <si>
+    <t>0:06:22</t>
+  </si>
+  <si>
+    <t>0:07:02</t>
+  </si>
+  <si>
+    <t>0:06:26</t>
+  </si>
+  <si>
+    <t>0:03:39</t>
+  </si>
+  <si>
+    <t>0:03:02</t>
+  </si>
+  <si>
+    <t>0:02:21</t>
+  </si>
+  <si>
+    <t>0:05:14</t>
+  </si>
+  <si>
+    <t>0:03:06</t>
+  </si>
+  <si>
+    <t>0:03:40</t>
+  </si>
+  <si>
+    <t>0:04:53</t>
+  </si>
+  <si>
+    <t>0:04:00</t>
+  </si>
+  <si>
+    <t>0:03:37</t>
+  </si>
+  <si>
+    <t>0:02:03</t>
+  </si>
+  <si>
+    <t>0:03:38</t>
+  </si>
+  <si>
+    <t>0:03:01</t>
+  </si>
+  <si>
+    <t>0:04:25</t>
+  </si>
+  <si>
+    <t>0:05:19</t>
+  </si>
+  <si>
+    <t>0:01:49</t>
+  </si>
+  <si>
+    <t>0:02:24</t>
+  </si>
+  <si>
+    <t>0:02:48</t>
+  </si>
+  <si>
+    <t>0:02:51</t>
+  </si>
+  <si>
+    <t>0:03:29</t>
+  </si>
+  <si>
+    <t>Saving and restoring show files is a good for all to know.</t>
+  </si>
+  <si>
+    <t>Useful when you want to change the look quickly and you can plan ahead.</t>
+  </si>
+  <si>
+    <t>We could use a Sequence to automate a complicated set of steps.</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1431,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1266,7 +1454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1277,9 +1464,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1288,6 +1472,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1583,7 +1776,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1640,7 +1833,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1697,7 +1890,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1754,7 +1947,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1811,7 +2004,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3101,7 +3294,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -3212,12 +3405,7 @@
   <autoFilter ref="A1:J116" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Projection"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ProPresenter"/>
+        <filter val="Lighting"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3584,15 +3772,15 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -3607,20 +3795,20 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -3643,7 +3831,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3662,7 +3850,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3685,7 +3873,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3702,12 +3890,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -3742,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G100" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3753,7 +3941,7 @@
     <col min="3" max="3" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="17" customWidth="1"/>
     <col min="7" max="7" width="73.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
@@ -3771,25 +3959,25 @@
         <v>107</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>229</v>
+      <c r="F1" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -3813,7 +4001,7 @@
         <v>111</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -3837,7 +4025,7 @@
         <v>111</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -3861,7 +4049,7 @@
         <v>111</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -3885,7 +4073,7 @@
         <v>111</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -3909,7 +4097,7 @@
         <v>111</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -3933,7 +4121,7 @@
         <v>111</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -3971,19 +4159,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.29236111111111113</v>
+        <v>227</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4000,19 +4188,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.10972222222222222</v>
+        <v>231</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4029,19 +4217,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.15</v>
+        <v>230</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4058,19 +4246,19 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.3611111111111111</v>
+        <v>252</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4087,19 +4275,19 @@
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.33333333333333331</v>
+        <v>262</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4116,19 +4304,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.4381944444444445</v>
+        <v>266</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4142,16 +4330,16 @@
         <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.40138888888888885</v>
+        <v>253</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4165,16 +4353,16 @@
         <v>114</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.25555555555555559</v>
+        <v>254</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>387</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4188,19 +4376,19 @@
         <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0.25</v>
+        <v>256</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>388</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4214,16 +4402,16 @@
         <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0.43958333333333338</v>
+        <v>258</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>389</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4237,16 +4425,16 @@
         <v>114</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.23680555555555557</v>
+        <v>257</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4260,16 +4448,16 @@
         <v>114</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0.19444444444444445</v>
+        <v>259</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4283,13 +4471,13 @@
         <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0.38472222222222219</v>
+        <v>261</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4305,13 +4493,13 @@
         <v>114</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0.17569444444444446</v>
+        <v>264</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>393</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -4327,13 +4515,13 @@
         <v>114</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F23" s="12">
-        <v>7.4999999999999997E-2</v>
+        <v>264</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -4349,13 +4537,13 @@
         <v>114</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0.40277777777777773</v>
+        <v>268</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>395</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -4371,13 +4559,13 @@
         <v>114</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0.30416666666666664</v>
+        <v>270</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4393,10 +4581,10 @@
         <v>114</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0.28611111111111115</v>
+        <v>264</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -4419,7 +4607,7 @@
         <v>89</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4440,7 +4628,7 @@
         <v>91</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4461,10 +4649,10 @@
         <v>88</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -4485,10 +4673,10 @@
         <v>111</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
@@ -4509,10 +4697,10 @@
         <v>111</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -4525,23 +4713,23 @@
       <c r="D32" s="3">
         <v>1</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F32" s="15">
-        <v>3.65</v>
+      <c r="F32" s="24" t="s">
+        <v>403</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -4554,23 +4742,23 @@
       <c r="D33" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="15">
-        <v>3.02</v>
+      <c r="F33" s="24" t="s">
+        <v>404</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -4583,23 +4771,24 @@
       <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="15">
-        <v>2.35</v>
-      </c>
+      <c r="F34" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="G34" s="25"/>
       <c r="H34" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -4612,23 +4801,23 @@
       <c r="D35" s="3">
         <v>4</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="15">
-        <v>5.23</v>
+      <c r="F35" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
@@ -4636,28 +4825,28 @@
         <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>138</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -4670,26 +4859,26 @@
       <c r="D37" s="3">
         <v>5</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="15">
-        <v>3.67</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>140</v>
+      <c r="F37" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>422</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -4697,31 +4886,31 @@
         <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="15">
-        <v>4.88</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>146</v>
+      <c r="E38" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
@@ -4729,31 +4918,31 @@
         <v>96</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="15">
-        <v>4</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>146</v>
+      <c r="E39" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
@@ -4761,31 +4950,31 @@
         <v>96</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="15">
-        <v>3.62</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>142</v>
+      <c r="E40" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>424</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
@@ -4793,28 +4982,28 @@
         <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="15">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>148</v>
+      <c r="E41" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
@@ -4822,28 +5011,28 @@
         <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D42" s="3">
         <v>2</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="15">
-        <v>3.63</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>148</v>
+      <c r="E42" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>72</v>
       </c>
@@ -4851,28 +5040,28 @@
         <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="15">
-        <v>3.02</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>148</v>
+      <c r="E43" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
@@ -4880,28 +5069,28 @@
         <v>96</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D44" s="3">
         <v>5</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="15">
-        <v>4.42</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>145</v>
+      <c r="E44" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
@@ -4909,28 +5098,28 @@
         <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D45" s="3">
         <v>6</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="15">
-        <v>5.32</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>153</v>
+      <c r="E45" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
@@ -4938,28 +5127,28 @@
         <v>96</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D46" s="3">
         <v>7</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" s="15">
-        <v>1.82</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>153</v>
+      <c r="E46" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -4967,28 +5156,28 @@
         <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D47" s="3">
         <v>8</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>153</v>
+      <c r="E47" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -4996,28 +5185,28 @@
         <v>96</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D48" s="3">
         <v>9</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="G48" s="15" t="s">
+      <c r="E48" s="14" t="s">
         <v>153</v>
       </c>
+      <c r="F48" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="H48" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>72</v>
       </c>
@@ -5025,28 +5214,28 @@
         <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D49" s="3">
         <v>10</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>153</v>
+      <c r="E49" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>72</v>
       </c>
@@ -5054,28 +5243,28 @@
         <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D50" s="3">
         <v>11</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="15">
-        <v>2.85</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>162</v>
+      <c r="E50" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>72</v>
       </c>
@@ -5083,28 +5272,28 @@
         <v>96</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D51" s="3">
         <v>12</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="15">
-        <v>3.48</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>160</v>
+      <c r="E51" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>72</v>
       </c>
@@ -5125,10 +5314,10 @@
         <v>130</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>72</v>
       </c>
@@ -5147,10 +5336,10 @@
         <v>129</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>72</v>
       </c>
@@ -5163,23 +5352,23 @@
       <c r="D54" s="3">
         <v>1</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="F54" s="17">
-        <v>0.24097222222222223</v>
+      <c r="E54" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>398</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>72</v>
       </c>
@@ -5192,23 +5381,23 @@
       <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="F55" s="17">
-        <v>0.31666666666666665</v>
+      <c r="E55" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>399</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="19" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>72</v>
       </c>
@@ -5221,23 +5410,23 @@
       <c r="D56" s="3">
         <v>3</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F56" s="17">
-        <v>0.26527777777777778</v>
+      <c r="E56" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="3" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
@@ -5250,23 +5439,23 @@
       <c r="D57" s="3">
         <v>4</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F57" s="17">
-        <v>0.29305555555555557</v>
+      <c r="E57" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>401</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="3" customFormat="1" ht="19" hidden="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>72</v>
       </c>
@@ -5279,28 +5468,28 @@
       <c r="D58" s="3">
         <v>5</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F58" s="17">
-        <v>0.26805555555555555</v>
+      <c r="E58" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>402</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>122</v>
@@ -5313,12 +5502,12 @@
         <v>111</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>123</v>
@@ -5334,18 +5523,18 @@
       </c>
       <c r="F60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>123</v>
@@ -5357,107 +5546,107 @@
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F61" s="5"/>
       <c r="H61" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
         <v>125</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
         <v>126</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
         <v>127</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5481,7 +5670,7 @@
         <v>111</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5505,7 +5694,7 @@
         <v>111</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5529,7 +5718,7 @@
         <v>111</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5553,7 +5742,7 @@
         <v>111</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5577,15 +5766,15 @@
         <v>111</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>108</v>
@@ -5596,25 +5785,25 @@
       <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="19">
-        <v>0.92013888888888884</v>
+      <c r="F70" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>108</v>
@@ -5625,25 +5814,25 @@
       <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="19">
-        <v>0.31319444444444444</v>
+      <c r="F71" s="21" t="s">
+        <v>346</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>108</v>
@@ -5654,28 +5843,28 @@
       <c r="E72" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="19">
-        <v>0.4548611111111111</v>
+      <c r="F72" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>108</v>
@@ -5686,28 +5875,28 @@
       <c r="E73" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="19">
-        <v>0.14861111111111111</v>
+      <c r="F73" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>108</v>
@@ -5718,25 +5907,25 @@
       <c r="E74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="19">
-        <v>0.2951388888888889</v>
+      <c r="F74" s="21" t="s">
+        <v>349</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>108</v>
@@ -5747,25 +5936,25 @@
       <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="19">
-        <v>0.38194444444444442</v>
+      <c r="F75" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>108</v>
@@ -5776,28 +5965,28 @@
       <c r="E76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="19">
-        <v>0.22708333333333333</v>
+      <c r="F76" s="21" t="s">
+        <v>351</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>108</v>
@@ -5808,25 +5997,25 @@
       <c r="E77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="19">
-        <v>0.40069444444444446</v>
+      <c r="F77" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>108</v>
@@ -5837,28 +6026,28 @@
       <c r="E78" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="19">
-        <v>3.5416666666666666E-2</v>
+      <c r="F78" s="21" t="s">
+        <v>353</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>108</v>
@@ -5869,25 +6058,25 @@
       <c r="E79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="19">
-        <v>0.35555555555555557</v>
+      <c r="F79" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>109</v>
@@ -5898,25 +6087,25 @@
       <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="19">
-        <v>0.31111111111111112</v>
+      <c r="F80" s="21" t="s">
+        <v>355</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>109</v>
@@ -5925,27 +6114,27 @@
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F81" s="19">
-        <v>0.21458333333333335</v>
+        <v>200</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>356</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>109</v>
@@ -5956,25 +6145,25 @@
       <c r="E82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="19">
-        <v>0.10208333333333335</v>
+      <c r="F82" s="21" t="s">
+        <v>357</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>109</v>
@@ -5985,25 +6174,25 @@
       <c r="E83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="19">
-        <v>0.30763888888888891</v>
+      <c r="F83" s="21" t="s">
+        <v>358</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>109</v>
@@ -6014,25 +6203,25 @@
       <c r="E84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F84" s="19">
-        <v>0.28750000000000003</v>
+      <c r="F84" s="21" t="s">
+        <v>359</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>109</v>
@@ -6043,25 +6232,25 @@
       <c r="E85" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="19">
-        <v>0.31180555555555556</v>
+      <c r="F85" s="21" t="s">
+        <v>360</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>109</v>
@@ -6072,17 +6261,17 @@
       <c r="E86" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F86" s="19">
-        <v>0.52638888888888891</v>
+      <c r="F86" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6106,7 +6295,7 @@
         <v>111</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J87" s="3"/>
     </row>
@@ -6131,7 +6320,7 @@
         <v>111</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J88" s="3"/>
     </row>
@@ -6156,7 +6345,7 @@
         <v>111</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J89" s="3"/>
     </row>
@@ -6172,13 +6361,13 @@
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J90" s="3"/>
     </row>
@@ -6197,7 +6386,7 @@
         <v>101</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J91" s="3"/>
     </row>
@@ -6217,7 +6406,7 @@
         <v>102</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J92" s="3"/>
     </row>
@@ -6247,7 +6436,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>108</v>
@@ -6256,20 +6445,20 @@
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6277,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>108</v>
@@ -6286,20 +6475,20 @@
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6318,12 +6507,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>108</v>
@@ -6332,25 +6521,25 @@
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F97" s="20" t="s">
-        <v>309</v>
+        <v>301</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>305</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>108</v>
@@ -6359,25 +6548,25 @@
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>308</v>
+        <v>304</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>108</v>
@@ -6386,23 +6575,23 @@
         <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F99" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>108</v>
@@ -6411,23 +6600,23 @@
         <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F100" s="22" t="s">
-        <v>322</v>
+        <v>315</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>108</v>
@@ -6436,23 +6625,23 @@
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>326</v>
+        <v>317</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>108</v>
@@ -6461,23 +6650,23 @@
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F102" s="22" t="s">
-        <v>331</v>
+        <v>321</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>108</v>
@@ -6486,23 +6675,23 @@
         <v>5</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>341</v>
+        <v>327</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>108</v>
@@ -6511,23 +6700,23 @@
         <v>6</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>350</v>
+        <v>333</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>368</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>109</v>
@@ -6536,23 +6725,23 @@
         <v>6</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F105" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>109</v>
@@ -6561,23 +6750,23 @@
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F106" s="22" t="s">
-        <v>335</v>
+        <v>323</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>370</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>109</v>
@@ -6586,23 +6775,23 @@
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>337</v>
+        <v>324</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>109</v>
@@ -6611,23 +6800,23 @@
         <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>344</v>
+        <v>329</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>372</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>109</v>
@@ -6636,23 +6825,23 @@
         <v>4</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>347</v>
+        <v>331</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>109</v>
@@ -6661,163 +6850,163 @@
         <v>5</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>361</v>
+        <v>340</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D111" s="3">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>319</v>
+        <v>313</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D112" s="3">
         <v>6</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>324</v>
+        <v>316</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D113" s="3">
         <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F113" s="22" t="s">
-        <v>352</v>
+        <v>336</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>356</v>
+        <v>337</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>378</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>358</v>
+        <v>339</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>379</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D116" s="3">
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F116" s="22" t="s">
-        <v>363</v>
+        <v>343</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -6856,20 +7045,15 @@
     <hyperlink ref="H85" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="H84" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="H62" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="F54" r:id="rId26" display="5:47NOW PLAYING" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="F55" r:id="rId27" display="7:36NOW PLAYING" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="F56" r:id="rId28" display="6:22NOW PLAYING" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="F57" r:id="rId29" display="7:02NOW PLAYING" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="F58" r:id="rId30" display="6:26NOW PLAYING" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="H56" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="H71" r:id="rId32" xr:uid="{045D822F-D7EC-0843-BF87-B5E903B9062F}"/>
-    <hyperlink ref="H100" r:id="rId33" location="219259" xr:uid="{AD0D256B-219F-2F46-BC7F-4D31F0C183BB}"/>
-    <hyperlink ref="H101" r:id="rId34" location="218515" xr:uid="{807693E7-BD7A-3F4E-8C5A-771DA977A842}"/>
+    <hyperlink ref="H56" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="H71" r:id="rId27" xr:uid="{045D822F-D7EC-0843-BF87-B5E903B9062F}"/>
+    <hyperlink ref="H100" r:id="rId28" location="219259" xr:uid="{AD0D256B-219F-2F46-BC7F-4D31F0C183BB}"/>
+    <hyperlink ref="H101" r:id="rId29" location="218515" xr:uid="{807693E7-BD7A-3F4E-8C5A-771DA977A842}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7119,10 +7303,10 @@
       <c r="A2">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="13">
         <v>0.40138888888888885</v>
       </c>
     </row>
@@ -7131,9 +7315,9 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="14">
+        <v>237</v>
+      </c>
+      <c r="C3" s="13">
         <v>0.38472222222222219</v>
       </c>
     </row>
@@ -7141,10 +7325,10 @@
       <c r="A4">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="13">
         <v>0.3611111111111111</v>
       </c>
     </row>
@@ -7152,10 +7336,10 @@
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="13">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -7163,10 +7347,10 @@
       <c r="A6">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="13">
         <v>0.29305555555555557</v>
       </c>
     </row>
@@ -7174,10 +7358,10 @@
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="13">
         <v>0.25555555555555559</v>
       </c>
     </row>
@@ -7186,9 +7370,9 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="14">
+        <v>236</v>
+      </c>
+      <c r="C8" s="13">
         <v>0.25</v>
       </c>
     </row>
@@ -7196,10 +7380,10 @@
       <c r="A9">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="13">
         <v>0.23680555555555557</v>
       </c>
     </row>
@@ -7208,9 +7392,9 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="14">
+        <v>240</v>
+      </c>
+      <c r="C10" s="13">
         <v>0.19444444444444445</v>
       </c>
     </row>
@@ -7219,9 +7403,9 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="14">
+        <v>233</v>
+      </c>
+      <c r="C11" s="13">
         <v>0.17569444444444446</v>
       </c>
     </row>
@@ -7230,9 +7414,9 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="14">
+        <v>241</v>
+      </c>
+      <c r="C12" s="13">
         <v>0.11041666666666666</v>
       </c>
     </row>
@@ -7241,9 +7425,9 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="14">
+        <v>239</v>
+      </c>
+      <c r="C13" s="13">
         <v>0.43958333333333338</v>
       </c>
     </row>
@@ -7252,9 +7436,9 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="14">
+        <v>242</v>
+      </c>
+      <c r="C14" s="13">
         <v>0.4381944444444445</v>
       </c>
     </row>
@@ -7263,9 +7447,9 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="14">
+        <v>238</v>
+      </c>
+      <c r="C15" s="13">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -7274,9 +7458,9 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="14">
+        <v>243</v>
+      </c>
+      <c r="C16" s="13">
         <v>0.40277777777777773</v>
       </c>
     </row>
@@ -7285,9 +7469,9 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="14">
+        <v>234</v>
+      </c>
+      <c r="C17" s="13">
         <v>0.30416666666666664</v>
       </c>
     </row>
@@ -7296,9 +7480,9 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="14">
+        <v>251</v>
+      </c>
+      <c r="C18" s="13">
         <v>0.28611111111111115</v>
       </c>
     </row>
@@ -7307,40 +7491,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C19" s="14">
+        <v>250</v>
+      </c>
+      <c r="C19" s="13">
         <v>0.15069444444444444</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7376,10 +7560,10 @@
       <c r="A1">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="17">
+      <c r="B1" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="16">
         <v>0.24097222222222223</v>
       </c>
     </row>
@@ -7387,10 +7571,10 @@
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="16">
         <v>0.31666666666666665</v>
       </c>
     </row>
@@ -7398,10 +7582,10 @@
       <c r="A3">
         <v>9</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="16">
         <v>0.26527777777777778</v>
       </c>
     </row>
@@ -7409,10 +7593,10 @@
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="16">
         <v>0.29305555555555557</v>
       </c>
     </row>
@@ -7420,10 +7604,10 @@
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="B5" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="16">
         <v>0.26805555555555555</v>
       </c>
     </row>
@@ -7479,13 +7663,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B1">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/training_videos.xlsx
+++ b/data/training_videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DAC0E8-7634-E64F-9045-C16824FA38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24271C18-124E-434E-9E8D-2E3439F8AA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,9 +463,6 @@
     <t>Arrange Stage Map</t>
   </si>
   <si>
-    <t>We may not change the stage map much, but understanding it is a good thing.</t>
-  </si>
-  <si>
     <t>Show File Handling</t>
   </si>
   <si>
@@ -1322,6 +1319,9 @@
   </si>
   <si>
     <t>We could use a Sequence to automate a complicated set of steps.</t>
+  </si>
+  <si>
+    <t>How the instruments are laid out on the screen</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1431,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1481,6 +1481,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -3772,15 +3775,15 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -3795,20 +3798,20 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -3831,7 +3834,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3850,7 +3853,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3890,12 +3893,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -3930,19 +3933,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="26" customWidth="1"/>
     <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="73.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
@@ -3958,26 +3961,26 @@
       <c r="C1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>294</v>
+      <c r="D1" s="26" t="s">
+        <v>293</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4001,7 +4004,7 @@
         <v>111</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4025,7 +4028,7 @@
         <v>111</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4049,7 +4052,7 @@
         <v>111</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4073,7 +4076,7 @@
         <v>111</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4097,7 +4100,7 @@
         <v>111</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4121,7 +4124,7 @@
         <v>111</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4134,6 +4137,7 @@
       <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>121</v>
       </c>
@@ -4159,19 +4163,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4188,19 +4192,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4217,19 +4221,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4246,19 +4250,19 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4275,19 +4279,19 @@
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4304,19 +4308,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4329,17 +4333,18 @@
       <c r="C15" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4352,17 +4357,18 @@
       <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4375,20 +4381,21 @@
       <c r="C17" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4401,17 +4408,18 @@
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4424,17 +4432,18 @@
       <c r="C19" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4447,17 +4456,18 @@
       <c r="C20" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4470,14 +4480,15 @@
       <c r="C21" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4492,14 +4503,15 @@
       <c r="C22" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -4514,14 +4526,15 @@
       <c r="C23" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -4536,14 +4549,15 @@
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -4558,14 +4572,15 @@
       <c r="C25" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4580,11 +4595,12 @@
       <c r="C26" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -4607,7 +4623,7 @@
         <v>89</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4628,7 +4644,7 @@
         <v>91</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -4649,7 +4665,7 @@
         <v>88</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4662,7 +4678,7 @@
       <c r="C30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="26">
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -4673,7 +4689,7 @@
         <v>111</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4686,7 +4702,7 @@
       <c r="C31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="26">
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -4697,7 +4713,7 @@
         <v>111</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -4710,23 +4726,23 @@
       <c r="C32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="26">
         <v>1</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>133</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4739,23 +4755,23 @@
       <c r="C33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="26">
         <v>2</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4768,24 +4784,24 @@
       <c r="C34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="26">
         <v>3</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>135</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4798,23 +4814,23 @@
       <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="26">
         <v>4</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -4825,25 +4841,25 @@
         <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D36" s="3">
+        <v>298</v>
+      </c>
+      <c r="D36" s="26">
         <v>3</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>137</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>138</v>
+        <v>424</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -4856,26 +4872,26 @@
       <c r="C37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="26">
         <v>5</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -4886,28 +4902,28 @@
         <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="3">
+        <v>215</v>
+      </c>
+      <c r="D38" s="26">
         <v>1</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4918,28 +4934,28 @@
         <v>96</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" s="3">
+        <v>215</v>
+      </c>
+      <c r="D39" s="26">
         <v>2</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -4950,28 +4966,28 @@
         <v>96</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" s="3">
+        <v>215</v>
+      </c>
+      <c r="D40" s="26">
         <v>3</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -4982,25 +4998,25 @@
         <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" s="3">
+        <v>298</v>
+      </c>
+      <c r="D41" s="26">
         <v>1</v>
       </c>
       <c r="E41" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5011,25 +5027,25 @@
         <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" s="3">
+        <v>298</v>
+      </c>
+      <c r="D42" s="26">
         <v>2</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -5040,25 +5056,25 @@
         <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" s="3">
+        <v>298</v>
+      </c>
+      <c r="D43" s="26">
         <v>4</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -5069,25 +5085,25 @@
         <v>96</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="3">
+        <v>298</v>
+      </c>
+      <c r="D44" s="26">
         <v>5</v>
       </c>
       <c r="E44" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="G44" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -5098,25 +5114,25 @@
         <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D45" s="3">
+        <v>298</v>
+      </c>
+      <c r="D45" s="26">
         <v>6</v>
       </c>
       <c r="E45" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5127,25 +5143,25 @@
         <v>96</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="3">
+        <v>298</v>
+      </c>
+      <c r="D46" s="26">
         <v>7</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5156,25 +5172,25 @@
         <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="3">
+        <v>298</v>
+      </c>
+      <c r="D47" s="26">
         <v>8</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5185,25 +5201,25 @@
         <v>96</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D48" s="3">
+        <v>298</v>
+      </c>
+      <c r="D48" s="26">
         <v>9</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5214,25 +5230,25 @@
         <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" s="3">
+        <v>298</v>
+      </c>
+      <c r="D49" s="26">
         <v>10</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5243,25 +5259,25 @@
         <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" s="3">
+        <v>298</v>
+      </c>
+      <c r="D50" s="26">
         <v>11</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5272,25 +5288,25 @@
         <v>96</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" s="3">
+        <v>298</v>
+      </c>
+      <c r="D51" s="26">
         <v>12</v>
       </c>
       <c r="E51" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5303,7 +5319,7 @@
       <c r="C52" s="3">
         <v>4</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="26">
         <v>2</v>
       </c>
       <c r="F52" s="3"/>
@@ -5314,7 +5330,7 @@
         <v>130</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5324,7 +5340,7 @@
       <c r="B53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="26">
         <v>1</v>
       </c>
       <c r="E53" s="5"/>
@@ -5336,7 +5352,7 @@
         <v>129</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5349,23 +5365,23 @@
       <c r="C54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="26">
         <v>1</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5378,23 +5394,23 @@
       <c r="C55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="26">
         <v>2</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5407,23 +5423,23 @@
       <c r="C56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="26">
         <v>3</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5436,23 +5452,23 @@
       <c r="C57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="26">
         <v>4</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5465,35 +5481,36 @@
       <c r="C58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="26">
         <v>5</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="D59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
         <v>128</v>
@@ -5502,12 +5519,12 @@
         <v>111</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>123</v>
@@ -5523,18 +5540,18 @@
       </c>
       <c r="F60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>123</v>
@@ -5546,107 +5563,107 @@
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F61" s="5"/>
       <c r="H61" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
         <v>125</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
         <v>126</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
         <v>127</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5670,7 +5687,7 @@
         <v>111</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5694,7 +5711,7 @@
         <v>111</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5718,7 +5735,7 @@
         <v>111</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5742,7 +5759,7 @@
         <v>111</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5766,7 +5783,7 @@
         <v>111</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5774,7 +5791,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>108</v>
@@ -5786,16 +5803,16 @@
         <v>14</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5803,7 +5820,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>108</v>
@@ -5815,16 +5832,16 @@
         <v>15</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5832,7 +5849,7 @@
         <v>83</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>108</v>
@@ -5844,19 +5861,19 @@
         <v>1</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5864,7 +5881,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>108</v>
@@ -5876,19 +5893,19 @@
         <v>4</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5896,7 +5913,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>108</v>
@@ -5908,16 +5925,16 @@
         <v>0</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5925,7 +5942,7 @@
         <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>108</v>
@@ -5937,16 +5954,16 @@
         <v>8</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5954,7 +5971,7 @@
         <v>83</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>108</v>
@@ -5966,19 +5983,19 @@
         <v>12</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -5986,7 +6003,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>108</v>
@@ -5998,16 +6015,16 @@
         <v>16</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6015,7 +6032,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>108</v>
@@ -6027,19 +6044,19 @@
         <v>9</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6047,7 +6064,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>108</v>
@@ -6059,16 +6076,16 @@
         <v>10</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6076,7 +6093,7 @@
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>109</v>
@@ -6088,16 +6105,16 @@
         <v>6</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6105,7 +6122,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>109</v>
@@ -6114,19 +6131,19 @@
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F81" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="I81" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6134,7 +6151,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>109</v>
@@ -6146,16 +6163,16 @@
         <v>7</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6163,7 +6180,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>109</v>
@@ -6175,16 +6192,16 @@
         <v>11</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6192,7 +6209,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>109</v>
@@ -6204,16 +6221,16 @@
         <v>2</v>
       </c>
       <c r="F84" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6221,7 +6238,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>109</v>
@@ -6233,16 +6250,16 @@
         <v>5</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6250,7 +6267,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>109</v>
@@ -6262,16 +6279,16 @@
         <v>3</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6295,7 +6312,7 @@
         <v>111</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J87" s="3"/>
     </row>
@@ -6320,7 +6337,7 @@
         <v>111</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J88" s="3"/>
     </row>
@@ -6345,7 +6362,7 @@
         <v>111</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J89" s="3"/>
     </row>
@@ -6361,13 +6378,13 @@
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J90" s="3"/>
     </row>
@@ -6386,7 +6403,7 @@
         <v>101</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J91" s="3"/>
     </row>
@@ -6406,7 +6423,7 @@
         <v>102</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J92" s="3"/>
     </row>
@@ -6436,7 +6453,7 @@
         <v>79</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>108</v>
@@ -6445,20 +6462,20 @@
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6466,7 +6483,7 @@
         <v>79</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>108</v>
@@ -6475,20 +6492,20 @@
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6498,6 +6515,7 @@
       <c r="C96" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="D96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="5" t="s">
         <v>97</v>
@@ -6512,7 +6530,7 @@
         <v>83</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>108</v>
@@ -6521,17 +6539,17 @@
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6539,7 +6557,7 @@
         <v>83</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>108</v>
@@ -6548,17 +6566,17 @@
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
@@ -6566,7 +6584,7 @@
         <v>83</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>108</v>
@@ -6575,13 +6593,13 @@
         <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F99" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -6591,7 +6609,7 @@
         <v>83</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>108</v>
@@ -6600,13 +6618,13 @@
         <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -6616,7 +6634,7 @@
         <v>83</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>108</v>
@@ -6625,13 +6643,13 @@
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -6641,7 +6659,7 @@
         <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>108</v>
@@ -6650,13 +6668,13 @@
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -6666,7 +6684,7 @@
         <v>83</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>108</v>
@@ -6675,13 +6693,13 @@
         <v>5</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -6691,7 +6709,7 @@
         <v>83</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>108</v>
@@ -6700,13 +6718,13 @@
         <v>6</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -6716,7 +6734,7 @@
         <v>83</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>109</v>
@@ -6725,13 +6743,13 @@
         <v>6</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -6741,7 +6759,7 @@
         <v>83</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>109</v>
@@ -6750,13 +6768,13 @@
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -6766,7 +6784,7 @@
         <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>109</v>
@@ -6775,13 +6793,13 @@
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="F107" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -6791,7 +6809,7 @@
         <v>83</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>109</v>
@@ -6800,13 +6818,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -6816,7 +6834,7 @@
         <v>83</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>109</v>
@@ -6825,13 +6843,13 @@
         <v>4</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -6841,7 +6859,7 @@
         <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>109</v>
@@ -6850,13 +6868,13 @@
         <v>5</v>
       </c>
       <c r="E110" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -6866,22 +6884,22 @@
         <v>83</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D111" s="3">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -6891,25 +6909,25 @@
         <v>83</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D112" s="3">
         <v>6</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -6919,22 +6937,22 @@
         <v>83</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D113" s="3">
         <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -6944,22 +6962,22 @@
         <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -6969,22 +6987,22 @@
         <v>83</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D115" s="3">
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -6994,19 +7012,19 @@
         <v>83</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116" s="3">
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -7304,7 +7322,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="13">
         <v>0.40138888888888885</v>
@@ -7315,7 +7333,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="13">
         <v>0.38472222222222219</v>
@@ -7326,7 +7344,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="13">
         <v>0.3611111111111111</v>
@@ -7337,7 +7355,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="13">
         <v>0.33333333333333331</v>
@@ -7348,7 +7366,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="13">
         <v>0.29305555555555557</v>
@@ -7359,7 +7377,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="13">
         <v>0.25555555555555559</v>
@@ -7370,7 +7388,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="13">
         <v>0.25</v>
@@ -7381,7 +7399,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="13">
         <v>0.23680555555555557</v>
@@ -7392,7 +7410,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="13">
         <v>0.19444444444444445</v>
@@ -7403,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="13">
         <v>0.17569444444444446</v>
@@ -7414,7 +7432,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="13">
         <v>0.11041666666666666</v>
@@ -7425,7 +7443,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" s="13">
         <v>0.43958333333333338</v>
@@ -7436,7 +7454,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="13">
         <v>0.4381944444444445</v>
@@ -7447,7 +7465,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="13">
         <v>7.4999999999999997E-2</v>
@@ -7458,7 +7476,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="13">
         <v>0.40277777777777773</v>
@@ -7469,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="13">
         <v>0.30416666666666664</v>
@@ -7480,7 +7498,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" s="13">
         <v>0.28611111111111115</v>
@@ -7491,7 +7509,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="13">
         <v>0.15069444444444444</v>
@@ -7499,32 +7517,32 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -7561,7 +7579,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="16">
         <v>0.24097222222222223</v>
@@ -7572,7 +7590,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="16">
         <v>0.31666666666666665</v>
@@ -7583,7 +7601,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="16">
         <v>0.26527777777777778</v>
@@ -7594,7 +7612,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="16">
         <v>0.29305555555555557</v>
@@ -7605,7 +7623,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="16">
         <v>0.26805555555555555</v>
@@ -7663,13 +7681,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/training_videos.xlsx
+++ b/data/training_videos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24271C18-124E-434E-9E8D-2E3439F8AA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA378E6-2F27-0B46-BBB9-28E068378A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="426">
   <si>
     <t xml:space="preserve"> Arrangements  </t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>How the instruments are laid out on the screen</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vHaVhBcCGg0?si=b01u_o-XjEZZKYVQ</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1480,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1779,7 +1782,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1836,7 +1839,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1893,7 +1896,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1950,7 +1953,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2007,7 +2010,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3297,7 +3300,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -3405,19 +3408,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}" name="Table1" displayName="Table1" ref="A1:J116" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J116" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Lighting"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A70:J116">
-    <sortCondition ref="A2:A116"/>
-    <sortCondition ref="B2:B116"/>
-    <sortCondition ref="C2:C116"/>
-    <sortCondition ref="D2:D116"/>
-  </sortState>
+  <autoFilter ref="A1:J116" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{30A2E519-C016-EB48-A24E-8330D0AB56BC}" name="Topic1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA07A1A3-1ECF-354E-8740-D7891A39DCB5}" name="Topic2" dataDxfId="8"/>
@@ -3933,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="C101" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,7 +3974,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -4007,7 +3998,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -4031,7 +4022,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -4055,7 +4046,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>84</v>
       </c>
@@ -4079,7 +4070,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -4103,7 +4094,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
@@ -4127,7 +4118,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
@@ -4149,7 +4140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
@@ -4178,7 +4169,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>84</v>
       </c>
@@ -4207,7 +4198,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -4236,7 +4227,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -4265,7 +4256,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
@@ -4294,7 +4285,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>84</v>
       </c>
@@ -4323,7 +4314,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>84</v>
       </c>
@@ -4347,7 +4338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>84</v>
       </c>
@@ -4371,7 +4362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -4398,7 +4389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
@@ -4422,7 +4413,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -4446,7 +4437,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -4470,7 +4461,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>84</v>
       </c>
@@ -4493,7 +4484,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -4516,7 +4507,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -4539,7 +4530,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
@@ -4562,7 +4553,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -4585,7 +4576,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>84</v>
       </c>
@@ -4605,7 +4596,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -4626,7 +4617,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -4647,7 +4638,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
@@ -5500,7 +5491,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>206</v>
       </c>
@@ -5522,7 +5513,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>206</v>
       </c>
@@ -5549,7 +5540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>206</v>
       </c>
@@ -5576,7 +5567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>206</v>
       </c>
@@ -5606,7 +5597,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>206</v>
       </c>
@@ -5636,7 +5627,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>206</v>
       </c>
@@ -5666,7 +5657,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>83</v>
       </c>
@@ -5690,7 +5681,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>83</v>
       </c>
@@ -5714,7 +5705,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>83</v>
       </c>
@@ -5738,7 +5729,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
@@ -5762,7 +5753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>83</v>
       </c>
@@ -5786,7 +5777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
@@ -5815,7 +5806,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>83</v>
       </c>
@@ -5844,7 +5835,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
@@ -5876,7 +5867,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
@@ -5908,7 +5899,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -5937,7 +5928,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>83</v>
       </c>
@@ -5966,7 +5957,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>83</v>
       </c>
@@ -5998,7 +5989,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>83</v>
       </c>
@@ -6027,7 +6018,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -6059,7 +6050,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
@@ -6088,7 +6079,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
@@ -6117,7 +6108,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
@@ -6146,7 +6137,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -6175,7 +6166,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
@@ -6204,7 +6195,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -6233,7 +6224,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -6262,7 +6253,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>83</v>
       </c>
@@ -6291,7 +6282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>79</v>
       </c>
@@ -6316,7 +6307,7 @@
       </c>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
@@ -6341,7 +6332,7 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>79</v>
       </c>
@@ -6366,7 +6357,7 @@
       </c>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>79</v>
       </c>
@@ -6388,7 +6379,7 @@
       </c>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>79</v>
       </c>
@@ -6407,7 +6398,7 @@
       </c>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>79</v>
       </c>
@@ -6427,7 +6418,7 @@
       </c>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>79</v>
       </c>
@@ -6448,7 +6439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>79</v>
       </c>
@@ -6478,7 +6469,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>79</v>
       </c>
@@ -6508,7 +6499,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>79</v>
       </c>
@@ -6525,7 +6516,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>83</v>
       </c>
@@ -6552,7 +6543,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>83</v>
       </c>
@@ -6579,7 +6570,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>83</v>
       </c>
@@ -6604,7 +6595,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>83</v>
       </c>
@@ -6629,7 +6620,7 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>83</v>
       </c>
@@ -6654,7 +6645,7 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>83</v>
       </c>
@@ -6679,7 +6670,7 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>83</v>
       </c>
@@ -6704,7 +6695,7 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>83</v>
       </c>
@@ -6729,7 +6720,7 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>83</v>
       </c>
@@ -6754,7 +6745,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>83</v>
       </c>
@@ -6779,7 +6770,7 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>83</v>
       </c>
@@ -6804,7 +6795,7 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>83</v>
       </c>
@@ -6829,7 +6820,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>83</v>
       </c>
@@ -6854,7 +6845,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>83</v>
       </c>
@@ -6879,7 +6870,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>83</v>
       </c>
@@ -6904,7 +6895,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>83</v>
       </c>
@@ -6932,7 +6923,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>83</v>
       </c>
@@ -6957,7 +6948,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>83</v>
       </c>
@@ -6982,7 +6973,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>83</v>
       </c>
@@ -7007,7 +6998,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>83</v>
       </c>
@@ -7026,7 +7017,9 @@
       <c r="F116" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="H116" s="3"/>
+      <c r="H116" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
     </row>
@@ -7067,11 +7060,12 @@
     <hyperlink ref="H71" r:id="rId27" xr:uid="{045D822F-D7EC-0843-BF87-B5E903B9062F}"/>
     <hyperlink ref="H100" r:id="rId28" location="219259" xr:uid="{AD0D256B-219F-2F46-BC7F-4D31F0C183BB}"/>
     <hyperlink ref="H101" r:id="rId29" location="218515" xr:uid="{807693E7-BD7A-3F4E-8C5A-771DA977A842}"/>
+    <hyperlink ref="H116" r:id="rId30" xr:uid="{90E05E38-9380-B544-977A-917E417A35EC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/data/training_videos.xlsx
+++ b/data/training_videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA378E6-2F27-0B46-BBB9-28E068378A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B06C9-1D32-8B4E-88E5-DA6DF7892A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="429">
   <si>
     <t xml:space="preserve"> Arrangements  </t>
   </si>
@@ -1325,6 +1325,15 @@
   </si>
   <si>
     <t>https://youtu.be/vHaVhBcCGg0?si=b01u_o-XjEZZKYVQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hW6oTPQLp8c?si=WCdAOMZ31vSnzNwM</t>
+  </si>
+  <si>
+    <t>0:16:28</t>
+  </si>
+  <si>
+    <t>Arrangements</t>
   </si>
 </sst>
 </file>
@@ -1434,7 +1443,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1488,6 +1497,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1512,6 +1524,62 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1655,61 +1723,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1782,7 +1795,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1839,7 +1852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1896,7 +1909,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1953,7 +1966,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2010,7 +2023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2084,7 +2097,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Terry Doner" refreshedDate="43710.829900115743" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="96" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J116" sheet="training"/>
+    <worksheetSource ref="A1:J117" sheet="training"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Topic1" numFmtId="0">
@@ -3300,7 +3313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -3407,19 +3420,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}" name="Table1" displayName="Table1" ref="A1:J116" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J116" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}" name="Table1" displayName="Table1" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J117" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{30A2E519-C016-EB48-A24E-8330D0AB56BC}" name="Topic1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA07A1A3-1ECF-354E-8740-D7891A39DCB5}" name="Topic2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3F1EAC53-B0AB-9D49-86B0-A4383C29F9B5}" name="Topic3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{846EA4FF-60DF-DC4D-B1B4-54AC410C166B}" name="Episode" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D5691A71-B4B3-F646-B3D8-0CEADB16C2D7}" name="Title" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F88E8C56-F0A5-A244-B1D0-D8AFAB1AB09F}" name="Duration" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{D7023264-2E64-0145-8E07-E522FCA4C712}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8E851320-C720-1445-82D3-54E4D0BBE69C}" name="URL" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{69D7F2DC-02D0-3D42-B11D-7E5D9F783578}" name="ContentStatus" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{9ACF3634-1E48-DF43-88FF-40D4AAAB5F82}" name="PostedStatus" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3F1EAC53-B0AB-9D49-86B0-A4383C29F9B5}" name="Topic3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{846EA4FF-60DF-DC4D-B1B4-54AC410C166B}" name="Episode" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D5691A71-B4B3-F646-B3D8-0CEADB16C2D7}" name="Title" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F88E8C56-F0A5-A244-B1D0-D8AFAB1AB09F}" name="Duration" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D7023264-2E64-0145-8E07-E522FCA4C712}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8E851320-C720-1445-82D3-54E4D0BBE69C}" name="URL" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{69D7F2DC-02D0-3D42-B11D-7E5D9F783578}" name="ContentStatus" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{9ACF3634-1E48-DF43-88FF-40D4AAAB5F82}" name="PostedStatus" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3922,10 +3935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C101" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3984,7 +3997,7 @@
       <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="27">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4008,7 +4021,7 @@
       <c r="C3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="27">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4032,7 +4045,7 @@
       <c r="C4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="27">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4056,7 +4069,7 @@
       <c r="C5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="27">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -4080,7 +4093,7 @@
       <c r="C6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="27">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4104,7 +4117,7 @@
       <c r="C7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="27">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4128,7 +4141,7 @@
       <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="3" t="s">
         <v>121</v>
       </c>
@@ -4150,7 +4163,7 @@
       <c r="C9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -4179,7 +4192,7 @@
       <c r="C10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="27">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4208,7 +4221,7 @@
       <c r="C11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="27">
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -4237,7 +4250,7 @@
       <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="27">
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -4266,7 +4279,7 @@
       <c r="C13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="27">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4295,7 +4308,7 @@
       <c r="C14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="27">
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -4324,7 +4337,7 @@
       <c r="C15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="3" t="s">
         <v>252</v>
       </c>
@@ -4348,7 +4361,7 @@
       <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="3" t="s">
         <v>253</v>
       </c>
@@ -4372,7 +4385,7 @@
       <c r="C17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="3" t="s">
         <v>255</v>
       </c>
@@ -4399,7 +4412,7 @@
       <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="3" t="s">
         <v>257</v>
       </c>
@@ -4423,7 +4436,7 @@
       <c r="C19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="3" t="s">
         <v>256</v>
       </c>
@@ -4447,7 +4460,7 @@
       <c r="C20" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="3" t="s">
         <v>258</v>
       </c>
@@ -4471,7 +4484,7 @@
       <c r="C21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="3" t="s">
         <v>260</v>
       </c>
@@ -4494,7 +4507,7 @@
       <c r="C22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="3" t="s">
         <v>263</v>
       </c>
@@ -4517,7 +4530,7 @@
       <c r="C23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="3" t="s">
         <v>263</v>
       </c>
@@ -4540,7 +4553,7 @@
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="3" t="s">
         <v>267</v>
       </c>
@@ -4563,7 +4576,7 @@
       <c r="C25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="3" t="s">
         <v>269</v>
       </c>
@@ -4586,7 +4599,7 @@
       <c r="C26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="3" t="s">
         <v>263</v>
       </c>
@@ -4606,7 +4619,7 @@
       <c r="C27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="27" t="s">
         <v>90</v>
       </c>
       <c r="F27" s="3"/>
@@ -4627,7 +4640,7 @@
       <c r="C28" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="27" t="s">
         <v>92</v>
       </c>
       <c r="F28" s="3"/>
@@ -4648,7 +4661,7 @@
       <c r="C29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="3"/>
@@ -5501,7 +5514,7 @@
       <c r="C59" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="27"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
         <v>128</v>
@@ -5523,7 +5536,7 @@
       <c r="C60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="27">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -5550,7 +5563,7 @@
       <c r="C61" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="27">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -5577,7 +5590,7 @@
       <c r="C62" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="27">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -5607,7 +5620,7 @@
       <c r="C63" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="27">
         <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -5637,7 +5650,7 @@
       <c r="C64" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="27">
         <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -5667,7 +5680,7 @@
       <c r="C65" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="27">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -5691,7 +5704,7 @@
       <c r="C66" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="27">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -5715,7 +5728,7 @@
       <c r="C67" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="27">
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -5739,7 +5752,7 @@
       <c r="C68" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="27">
         <v>4</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -5763,7 +5776,7 @@
       <c r="C69" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="27">
         <v>5</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -5787,7 +5800,7 @@
       <c r="C70" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="27">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -5816,7 +5829,7 @@
       <c r="C71" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="27">
         <v>2</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -5845,7 +5858,7 @@
       <c r="C72" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="27">
         <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -5877,7 +5890,7 @@
       <c r="C73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="27">
         <v>4</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -5909,7 +5922,7 @@
       <c r="C74" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="27">
         <v>5</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -5938,7 +5951,7 @@
       <c r="C75" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="27">
         <v>6</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -5967,7 +5980,7 @@
       <c r="C76" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="27">
         <v>7</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -5999,7 +6012,7 @@
       <c r="C77" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="27">
         <v>8</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -6028,7 +6041,7 @@
       <c r="C78" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="27">
         <v>9</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -6060,7 +6073,7 @@
       <c r="C79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="27">
         <v>10</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -6089,7 +6102,7 @@
       <c r="C80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="27">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -6118,7 +6131,7 @@
       <c r="C81" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="27">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -6147,7 +6160,7 @@
       <c r="C82" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="27">
         <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -6176,7 +6189,7 @@
       <c r="C83" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="27">
         <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -6205,7 +6218,7 @@
       <c r="C84" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="27">
         <v>6</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -6234,7 +6247,7 @@
       <c r="C85" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="27">
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -6263,7 +6276,7 @@
       <c r="C86" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="27">
         <v>8</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -6292,7 +6305,7 @@
       <c r="C87" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="27">
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -6317,7 +6330,7 @@
       <c r="C88" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="27">
         <v>2</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -6342,7 +6355,7 @@
       <c r="C89" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="27">
         <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -6364,7 +6377,7 @@
       <c r="B90" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="27">
         <v>1</v>
       </c>
       <c r="F90" s="3"/>
@@ -6386,7 +6399,7 @@
       <c r="B91" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="27">
         <v>2</v>
       </c>
       <c r="F91" s="3"/>
@@ -6405,7 +6418,7 @@
       <c r="B92" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="27">
         <v>3</v>
       </c>
       <c r="F92" s="3"/>
@@ -6425,7 +6438,7 @@
       <c r="B93" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="27">
         <v>1</v>
       </c>
       <c r="F93" s="3"/>
@@ -6449,7 +6462,7 @@
       <c r="C94" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="27">
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -6479,7 +6492,7 @@
       <c r="C95" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="27">
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -6506,7 +6519,7 @@
       <c r="C96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="27"/>
       <c r="F96" s="3"/>
       <c r="G96" s="5" t="s">
         <v>97</v>
@@ -6526,7 +6539,7 @@
       <c r="C97" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="27">
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -6553,7 +6566,7 @@
       <c r="C98" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="27">
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -6580,7 +6593,7 @@
       <c r="C99" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="27">
         <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -6605,7 +6618,7 @@
       <c r="C100" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="27">
         <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -6630,8 +6643,8 @@
       <c r="C101" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D101" s="3">
-        <v>7</v>
+      <c r="D101" s="27">
+        <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>316</v>
@@ -6655,7 +6668,7 @@
       <c r="C102" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="27">
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -6680,7 +6693,7 @@
       <c r="C103" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="27">
         <v>5</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -6705,8 +6718,8 @@
       <c r="C104" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="3">
-        <v>6</v>
+      <c r="D104" s="27">
+        <v>7</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>332</v>
@@ -6730,7 +6743,7 @@
       <c r="C105" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="27">
         <v>6</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -6755,7 +6768,7 @@
       <c r="C106" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="27">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -6780,7 +6793,7 @@
       <c r="C107" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="27">
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -6805,7 +6818,7 @@
       <c r="C108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="27">
         <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -6830,7 +6843,7 @@
       <c r="C109" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="27">
         <v>4</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -6855,7 +6868,7 @@
       <c r="C110" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="27">
         <v>5</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -6880,7 +6893,7 @@
       <c r="C111" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="27">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -6905,7 +6918,7 @@
       <c r="C112" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="27">
         <v>6</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -6933,7 +6946,7 @@
       <c r="C113" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="27">
         <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -6958,7 +6971,7 @@
       <c r="C114" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="27">
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -6983,7 +6996,7 @@
       <c r="C115" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="27">
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -7008,7 +7021,7 @@
       <c r="C116" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="27">
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -7022,6 +7035,31 @@
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" s="26">
+        <v>6</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">

--- a/data/training_videos.xlsx
+++ b/data/training_videos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B06C9-1D32-8B4E-88E5-DA6DF7892A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8F53F5-AC8C-7C40-9955-59E770E77A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="433">
   <si>
     <t xml:space="preserve"> Arrangements  </t>
   </si>
@@ -310,21 +310,9 @@
     <t>Lighting@uac - DMX wiring on stage</t>
   </si>
   <si>
-    <t>*13</t>
-  </si>
-  <si>
-    <t>Live Sound Basics - DC Sound Op material</t>
-  </si>
-  <si>
-    <t>Dante Certification Level 1: Course Content</t>
-  </si>
-  <si>
     <t>*5</t>
   </si>
   <si>
-    <t>Dante Certification Level 2: Course Content</t>
-  </si>
-  <si>
     <t>*12</t>
   </si>
   <si>
@@ -400,21 +388,12 @@
     <t>Lighting Design</t>
   </si>
   <si>
-    <t>01 DM1K</t>
-  </si>
-  <si>
     <t>01 Dante Level 1</t>
   </si>
   <si>
     <t>02 Dante Level 2</t>
   </si>
   <si>
-    <t>01 How to mix …</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>@uac</t>
   </si>
   <si>
@@ -1334,13 +1313,46 @@
   </si>
   <si>
     <t>Arrangements</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XAxLB3zm6Hc?si=H1S1u4Y-VP59ouFz</t>
+  </si>
+  <si>
+    <t>https://youtu.be/se5L-S4IupQ?si=YmgVP-p9Hy_WIiPE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ysn3l2efQLQ?si=4jOS3T3onxPdc4Dr</t>
+  </si>
+  <si>
+    <t>Dante Certification Intro</t>
+  </si>
+  <si>
+    <t>Dante Certification Intro Level 2</t>
+  </si>
+  <si>
+    <t>0:05:28</t>
+  </si>
+  <si>
+    <t>Live Sound System Signal Flow - Live Sound Basics</t>
+  </si>
+  <si>
+    <t>0:33:56</t>
+  </si>
+  <si>
+    <t>01 Basic M7CL</t>
+  </si>
+  <si>
+    <t>01 Basic DM1K</t>
+  </si>
+  <si>
+    <t>Need to find a video for this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1367,13 +1379,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1443,7 +1448,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1454,24 +1459,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1490,7 +1494,7 @@
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1541,44 +1545,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1669,6 +1635,44 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1795,7 +1799,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1852,7 +1856,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1909,7 +1913,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1966,7 +1970,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2023,7 +2027,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3313,7 +3317,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -3425,14 +3429,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{30A2E519-C016-EB48-A24E-8330D0AB56BC}" name="Topic1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA07A1A3-1ECF-354E-8740-D7891A39DCB5}" name="Topic2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3F1EAC53-B0AB-9D49-86B0-A4383C29F9B5}" name="Topic3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{846EA4FF-60DF-DC4D-B1B4-54AC410C166B}" name="Episode" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{D5691A71-B4B3-F646-B3D8-0CEADB16C2D7}" name="Title" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F88E8C56-F0A5-A244-B1D0-D8AFAB1AB09F}" name="Duration" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D7023264-2E64-0145-8E07-E522FCA4C712}" name="Notes" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8E851320-C720-1445-82D3-54E4D0BBE69C}" name="URL" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{69D7F2DC-02D0-3D42-B11D-7E5D9F783578}" name="ContentStatus" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{9ACF3634-1E48-DF43-88FF-40D4AAAB5F82}" name="PostedStatus" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3F1EAC53-B0AB-9D49-86B0-A4383C29F9B5}" name="Topic3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{846EA4FF-60DF-DC4D-B1B4-54AC410C166B}" name="Episode" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{D5691A71-B4B3-F646-B3D8-0CEADB16C2D7}" name="Title" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F88E8C56-F0A5-A244-B1D0-D8AFAB1AB09F}" name="Duration" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D7023264-2E64-0145-8E07-E522FCA4C712}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8E851320-C720-1445-82D3-54E4D0BBE69C}" name="URL" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{69D7F2DC-02D0-3D42-B11D-7E5D9F783578}" name="ContentStatus" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{9ACF3634-1E48-DF43-88FF-40D4AAAB5F82}" name="PostedStatus" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3778,16 +3782,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>165</v>
+      <c r="A3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>163</v>
+      <c r="A4" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -3802,20 +3806,20 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>160</v>
+      <c r="A6" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -3838,12 +3842,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>112</v>
+      <c r="A8" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3856,8 +3860,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>159</v>
+      <c r="A9" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3879,8 +3883,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>160</v>
+      <c r="A10" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3896,13 +3900,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>186</v>
+      <c r="A11" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -3937,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3946,9 +3950,9 @@
     <col min="1" max="1" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="25" customWidth="1"/>
     <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
@@ -3957,34 +3961,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>293</v>
+        <v>103</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>225</v>
+      <c r="F1" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3992,12 +3996,12 @@
         <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4005,10 +4009,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="H2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4016,12 +4020,12 @@
         <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4029,10 +4033,10 @@
       </c>
       <c r="F3" s="5"/>
       <c r="H3" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4040,12 +4044,12 @@
         <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4053,10 +4057,10 @@
       </c>
       <c r="F4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4064,12 +4068,12 @@
         <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -4077,10 +4081,10 @@
       </c>
       <c r="F5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4088,12 +4092,12 @@
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4101,10 +4105,10 @@
       </c>
       <c r="F6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4112,12 +4116,12 @@
         <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4125,10 +4129,10 @@
       </c>
       <c r="F7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4136,21 +4140,23 @@
         <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="27"/>
+        <v>431</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>121</v>
+        <v>432</v>
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4158,28 +4164,28 @@
         <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="27">
+        <v>430</v>
+      </c>
+      <c r="D9" s="26">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4187,28 +4193,28 @@
         <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="27">
+        <v>430</v>
+      </c>
+      <c r="D10" s="26">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>380</v>
+        <v>223</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>373</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4216,28 +4222,28 @@
         <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="27">
+        <v>430</v>
+      </c>
+      <c r="D11" s="26">
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>381</v>
+        <v>222</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4245,28 +4251,28 @@
         <v>84</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="27">
+        <v>430</v>
+      </c>
+      <c r="D12" s="26">
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>382</v>
+        <v>244</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>375</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -4274,28 +4280,28 @@
         <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="27">
+        <v>430</v>
+      </c>
+      <c r="D13" s="26">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>383</v>
+        <v>254</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>376</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -4303,28 +4309,28 @@
         <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="27">
+        <v>430</v>
+      </c>
+      <c r="D14" s="26">
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4332,23 +4338,25 @@
         <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D15" s="26">
+        <v>8</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>385</v>
+        <v>245</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>378</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -4356,23 +4364,25 @@
         <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D16" s="26">
+        <v>9</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>386</v>
+        <v>246</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4380,26 +4390,28 @@
         <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D17" s="26">
+        <v>10</v>
+      </c>
       <c r="E17" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>387</v>
+        <v>248</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -4407,23 +4419,25 @@
         <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D18" s="26">
+        <v>11</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>388</v>
+        <v>250</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -4431,23 +4445,25 @@
         <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D19" s="26">
+        <v>12</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>389</v>
+        <v>249</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -4455,23 +4471,25 @@
         <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D20" s="26">
+        <v>13</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>278</v>
+        <v>251</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -4479,20 +4497,22 @@
         <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D21" s="26">
+        <v>7</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>391</v>
+        <v>253</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4502,20 +4522,22 @@
         <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D22" s="26">
+        <v>3</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>392</v>
+        <v>256</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>385</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -4525,20 +4547,22 @@
         <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D23" s="26">
+        <v>4</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>393</v>
+        <v>256</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -4548,20 +4572,22 @@
         <v>84</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D24" s="26">
+        <v>5</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>394</v>
+        <v>260</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>387</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -4571,20 +4597,22 @@
         <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D25" s="26">
+        <v>6</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>395</v>
+        <v>262</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4594,17 +4622,19 @@
         <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D26" s="26">
+        <v>2</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>396</v>
+        <v>256</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>389</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -4614,20 +4644,25 @@
         <v>84</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="H27" s="6" t="s">
-        <v>89</v>
+      <c r="D27" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -4635,20 +4670,25 @@
         <v>84</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="H28" s="6" t="s">
-        <v>91</v>
+        <v>114</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -4656,20 +4696,25 @@
         <v>84</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="H29" s="6" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4677,23 +4722,23 @@
         <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="26">
+      <c r="D30" s="25">
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="H30" s="9" t="s">
-        <v>111</v>
+      <c r="H30" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4701,23 +4746,23 @@
         <v>72</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>86</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="H31" s="9" t="s">
-        <v>111</v>
+      <c r="H31" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -4725,28 +4770,28 @@
         <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="26">
+        <v>104</v>
+      </c>
+      <c r="D32" s="25">
         <v>1</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>402</v>
+      <c r="E32" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>395</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4754,28 +4799,28 @@
         <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="26">
+        <v>104</v>
+      </c>
+      <c r="D33" s="25">
         <v>2</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>403</v>
+      <c r="E33" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>396</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4783,29 +4828,29 @@
         <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="26">
+        <v>104</v>
+      </c>
+      <c r="D34" s="25">
         <v>3</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="G34" s="25"/>
+      <c r="E34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G34" s="24"/>
       <c r="H34" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4813,28 +4858,28 @@
         <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="26">
+        <v>104</v>
+      </c>
+      <c r="D35" s="25">
         <v>4</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>405</v>
+      <c r="E35" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>398</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -4842,28 +4887,28 @@
         <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D36" s="26">
+        <v>291</v>
+      </c>
+      <c r="D36" s="25">
         <v>3</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>424</v>
+      <c r="E36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -4871,31 +4916,31 @@
         <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="26">
+        <v>104</v>
+      </c>
+      <c r="D37" s="25">
         <v>5</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>421</v>
+      <c r="E37" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>414</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -4903,31 +4948,31 @@
         <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="26">
+        <v>208</v>
+      </c>
+      <c r="D38" s="25">
         <v>1</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>422</v>
+      <c r="E38" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4935,31 +4980,31 @@
         <v>72</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="26">
+        <v>208</v>
+      </c>
+      <c r="D39" s="25">
         <v>2</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>422</v>
+      <c r="E39" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -4967,31 +5012,31 @@
         <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="26">
+        <v>208</v>
+      </c>
+      <c r="D40" s="25">
         <v>3</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>423</v>
+      <c r="E40" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -4999,28 +5044,28 @@
         <v>72</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" s="26">
+        <v>291</v>
+      </c>
+      <c r="D41" s="25">
         <v>1</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>144</v>
+      <c r="E41" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5028,28 +5073,28 @@
         <v>72</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="26">
+        <v>291</v>
+      </c>
+      <c r="D42" s="25">
         <v>2</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>144</v>
+      <c r="E42" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -5057,28 +5102,28 @@
         <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D43" s="26">
+        <v>291</v>
+      </c>
+      <c r="D43" s="25">
         <v>4</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>144</v>
+      <c r="E43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -5086,28 +5131,28 @@
         <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="26">
+        <v>291</v>
+      </c>
+      <c r="D44" s="25">
         <v>5</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>142</v>
+      <c r="E44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -5115,28 +5160,28 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D45" s="26">
+        <v>291</v>
+      </c>
+      <c r="D45" s="25">
         <v>6</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>149</v>
+      <c r="E45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5144,28 +5189,28 @@
         <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D46" s="26">
+        <v>291</v>
+      </c>
+      <c r="D46" s="25">
         <v>7</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>149</v>
+      <c r="E46" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5173,28 +5218,28 @@
         <v>72</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="26">
+        <v>291</v>
+      </c>
+      <c r="D47" s="25">
         <v>8</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>149</v>
+      <c r="E47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5202,28 +5247,28 @@
         <v>72</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D48" s="26">
+        <v>291</v>
+      </c>
+      <c r="D48" s="25">
         <v>9</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>149</v>
+      <c r="E48" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5231,28 +5276,28 @@
         <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" s="26">
+        <v>291</v>
+      </c>
+      <c r="D49" s="25">
         <v>10</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5260,28 +5305,28 @@
         <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D50" s="26">
+        <v>291</v>
+      </c>
+      <c r="D50" s="25">
         <v>11</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>158</v>
+      <c r="E50" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5289,28 +5334,28 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D51" s="26">
+        <v>291</v>
+      </c>
+      <c r="D51" s="25">
         <v>12</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>156</v>
+      <c r="E51" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5318,23 +5363,23 @@
         <v>72</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C52" s="3">
         <v>4</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="25">
         <v>2</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5342,21 +5387,21 @@
         <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="26">
+        <v>112</v>
+      </c>
+      <c r="D53" s="25">
         <v>1</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5364,28 +5409,28 @@
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="26">
+        <v>104</v>
+      </c>
+      <c r="D54" s="25">
         <v>1</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>397</v>
+      <c r="E54" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5393,28 +5438,28 @@
         <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="26">
+        <v>104</v>
+      </c>
+      <c r="D55" s="25">
         <v>2</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>398</v>
+      <c r="E55" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5422,28 +5467,28 @@
         <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="26">
+        <v>104</v>
+      </c>
+      <c r="D56" s="25">
         <v>3</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>399</v>
+      <c r="E56" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J56" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5451,28 +5496,28 @@
         <v>72</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="26">
+        <v>104</v>
+      </c>
+      <c r="D57" s="25">
         <v>4</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>400</v>
+      <c r="E57" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>393</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5480,194 +5525,194 @@
         <v>72</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="26">
+        <v>104</v>
+      </c>
+      <c r="D58" s="25">
         <v>5</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>401</v>
+      <c r="E58" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="27"/>
+        <v>210</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="26"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="27">
+        <v>104</v>
+      </c>
+      <c r="D60" s="26">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>160</v>
+        <v>200</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="27">
+        <v>104</v>
+      </c>
+      <c r="D61" s="26">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F61" s="5"/>
       <c r="H61" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>160</v>
+        <v>202</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="27">
+        <v>208</v>
+      </c>
+      <c r="D62" s="26">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>160</v>
+        <v>209</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" s="27">
+        <v>208</v>
+      </c>
+      <c r="D63" s="26">
         <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>160</v>
+        <v>204</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="26">
+        <v>3</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="27">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>160</v>
+        <v>205</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -5675,12 +5720,12 @@
         <v>83</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="27">
+      <c r="D65" s="26">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -5688,10 +5733,10 @@
       </c>
       <c r="F65" s="5"/>
       <c r="H65" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -5699,12 +5744,12 @@
         <v>83</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="27">
+      <c r="D66" s="26">
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -5712,10 +5757,10 @@
       </c>
       <c r="F66" s="5"/>
       <c r="H66" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -5723,12 +5768,12 @@
         <v>83</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="27">
+      <c r="D67" s="26">
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -5736,10 +5781,10 @@
       </c>
       <c r="F67" s="5"/>
       <c r="H67" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -5747,12 +5792,12 @@
         <v>83</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="27">
+      <c r="D68" s="26">
         <v>4</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -5760,10 +5805,10 @@
       </c>
       <c r="F68" s="5"/>
       <c r="H68" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5771,12 +5816,12 @@
         <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="27">
+      <c r="D69" s="26">
         <v>5</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -5784,10 +5829,10 @@
       </c>
       <c r="F69" s="5"/>
       <c r="H69" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -5795,28 +5840,28 @@
         <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="27">
+        <v>104</v>
+      </c>
+      <c r="D70" s="26">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="21" t="s">
-        <v>344</v>
+      <c r="F70" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>160</v>
+        <v>181</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -5824,28 +5869,28 @@
         <v>83</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="27">
+        <v>104</v>
+      </c>
+      <c r="D71" s="26">
         <v>2</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="21" t="s">
-        <v>345</v>
+      <c r="F71" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>160</v>
+        <v>182</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -5853,31 +5898,31 @@
         <v>83</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" s="27">
+        <v>104</v>
+      </c>
+      <c r="D72" s="26">
         <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="21" t="s">
-        <v>346</v>
+      <c r="F72" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>160</v>
+        <v>183</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -5885,31 +5930,31 @@
         <v>83</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="27">
+        <v>104</v>
+      </c>
+      <c r="D73" s="26">
         <v>4</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="21" t="s">
-        <v>347</v>
+      <c r="F73" s="20" t="s">
+        <v>340</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>160</v>
+        <v>184</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -5917,28 +5962,28 @@
         <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="27">
+        <v>104</v>
+      </c>
+      <c r="D74" s="26">
         <v>5</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="21" t="s">
-        <v>348</v>
+      <c r="F74" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>160</v>
+        <v>185</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -5946,28 +5991,28 @@
         <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="27">
+        <v>104</v>
+      </c>
+      <c r="D75" s="26">
         <v>6</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="21" t="s">
-        <v>349</v>
+      <c r="F75" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>160</v>
+        <v>186</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -5975,31 +6020,31 @@
         <v>83</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" s="27">
+        <v>104</v>
+      </c>
+      <c r="D76" s="26">
         <v>7</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="21" t="s">
-        <v>350</v>
+      <c r="F76" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>160</v>
+        <v>187</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -6007,28 +6052,28 @@
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="27">
+        <v>104</v>
+      </c>
+      <c r="D77" s="26">
         <v>8</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="21" t="s">
-        <v>351</v>
+      <c r="F77" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>160</v>
+        <v>188</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -6036,31 +6081,31 @@
         <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="27">
+        <v>104</v>
+      </c>
+      <c r="D78" s="26">
         <v>9</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="21" t="s">
-        <v>352</v>
+      <c r="F78" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>160</v>
+        <v>189</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -6068,28 +6113,28 @@
         <v>83</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" s="27">
+        <v>104</v>
+      </c>
+      <c r="D79" s="26">
         <v>10</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="21" t="s">
-        <v>353</v>
+      <c r="F79" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>160</v>
+        <v>190</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -6097,28 +6142,28 @@
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="27">
+        <v>105</v>
+      </c>
+      <c r="D80" s="26">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="21" t="s">
-        <v>354</v>
+      <c r="F80" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>160</v>
+        <v>191</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -6126,28 +6171,28 @@
         <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" s="27">
+        <v>105</v>
+      </c>
+      <c r="D81" s="26">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>355</v>
+        <v>192</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>160</v>
+        <v>193</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -6155,28 +6200,28 @@
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="27">
+        <v>105</v>
+      </c>
+      <c r="D82" s="26">
         <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="21" t="s">
-        <v>356</v>
+      <c r="F82" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>160</v>
+        <v>194</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -6184,28 +6229,28 @@
         <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="27">
+        <v>105</v>
+      </c>
+      <c r="D83" s="26">
         <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="21" t="s">
-        <v>357</v>
+      <c r="F83" s="20" t="s">
+        <v>350</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>160</v>
+        <v>195</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -6213,28 +6258,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="27">
+        <v>105</v>
+      </c>
+      <c r="D84" s="26">
         <v>6</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F84" s="21" t="s">
-        <v>358</v>
+      <c r="F84" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>160</v>
+        <v>198</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -6242,28 +6287,28 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="27">
+        <v>105</v>
+      </c>
+      <c r="D85" s="26">
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="21" t="s">
-        <v>359</v>
+      <c r="F85" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>160</v>
+        <v>197</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -6271,28 +6316,28 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" s="27">
+        <v>105</v>
+      </c>
+      <c r="D86" s="26">
         <v>8</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F86" s="21" t="s">
-        <v>360</v>
+      <c r="F86" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>160</v>
+        <v>196</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -6300,23 +6345,23 @@
         <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="27">
+        <v>94</v>
+      </c>
+      <c r="D87" s="26">
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="8"/>
+      <c r="F87" s="7"/>
       <c r="H87" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J87" s="3"/>
     </row>
@@ -6325,23 +6370,23 @@
         <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="27">
+        <v>94</v>
+      </c>
+      <c r="D88" s="26">
         <v>2</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="8"/>
+      <c r="F88" s="7"/>
       <c r="H88" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J88" s="3"/>
     </row>
@@ -6350,23 +6395,23 @@
         <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="27">
+        <v>94</v>
+      </c>
+      <c r="D89" s="26">
         <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F89" s="8"/>
+      <c r="F89" s="7"/>
       <c r="H89" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J89" s="3"/>
     </row>
@@ -6375,20 +6420,20 @@
         <v>79</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="27">
+        <v>89</v>
+      </c>
+      <c r="D90" s="26">
         <v>1</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J90" s="3"/>
     </row>
@@ -6397,17 +6442,17 @@
         <v>79</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="27">
+        <v>89</v>
+      </c>
+      <c r="D91" s="26">
         <v>2</v>
       </c>
       <c r="F91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J91" s="3"/>
     </row>
@@ -6416,18 +6461,18 @@
         <v>79</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="27">
+        <v>89</v>
+      </c>
+      <c r="D92" s="26">
         <v>3</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="5"/>
       <c r="H92" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J92" s="3"/>
     </row>
@@ -6436,20 +6481,20 @@
         <v>79</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="27">
+        <v>91</v>
+      </c>
+      <c r="D93" s="26">
         <v>1</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -6457,29 +6502,29 @@
         <v>79</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="27">
+        <v>104</v>
+      </c>
+      <c r="D94" s="26">
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>160</v>
+        <v>211</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -6487,29 +6532,29 @@
         <v>79</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="27">
+        <v>104</v>
+      </c>
+      <c r="D95" s="26">
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>160</v>
+        <v>214</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -6517,16 +6562,16 @@
         <v>79</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="27"/>
+        <v>95</v>
+      </c>
+      <c r="D96" s="26"/>
       <c r="F96" s="3"/>
       <c r="G96" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -6534,26 +6579,26 @@
         <v>83</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" s="27">
+        <v>104</v>
+      </c>
+      <c r="D97" s="26">
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -6561,26 +6606,26 @@
         <v>83</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="27">
+        <v>104</v>
+      </c>
+      <c r="D98" s="26">
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>361</v>
+        <v>296</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -6588,22 +6633,22 @@
         <v>83</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D99" s="27">
+        <v>104</v>
+      </c>
+      <c r="D99" s="26">
         <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>362</v>
+        <v>306</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -6613,22 +6658,22 @@
         <v>83</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100" s="27">
+        <v>104</v>
+      </c>
+      <c r="D100" s="26">
         <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F100" s="20" t="s">
-        <v>363</v>
+        <v>307</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -6638,22 +6683,22 @@
         <v>83</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101" s="27">
+        <v>104</v>
+      </c>
+      <c r="D101" s="26">
         <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>364</v>
+        <v>309</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>357</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -6663,22 +6708,22 @@
         <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D102" s="27">
+        <v>104</v>
+      </c>
+      <c r="D102" s="26">
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F102" s="20" t="s">
-        <v>365</v>
+        <v>313</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -6688,22 +6733,22 @@
         <v>83</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="26">
+        <v>5</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" s="27">
-        <v>5</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -6713,22 +6758,22 @@
         <v>83</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D104" s="27">
+        <v>104</v>
+      </c>
+      <c r="D104" s="26">
         <v>7</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F104" s="20" t="s">
-        <v>367</v>
+        <v>325</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -6738,22 +6783,22 @@
         <v>83</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" s="27">
+        <v>105</v>
+      </c>
+      <c r="D105" s="26">
         <v>6</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>368</v>
+        <v>310</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>361</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -6763,22 +6808,22 @@
         <v>83</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D106" s="27">
+        <v>105</v>
+      </c>
+      <c r="D106" s="26">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F106" s="20" t="s">
-        <v>369</v>
+        <v>315</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -6788,22 +6833,22 @@
         <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="27">
+        <v>105</v>
+      </c>
+      <c r="D107" s="26">
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F107" s="20" t="s">
-        <v>370</v>
+        <v>316</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>363</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -6813,22 +6858,22 @@
         <v>83</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" s="27">
+        <v>105</v>
+      </c>
+      <c r="D108" s="26">
         <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>371</v>
+        <v>321</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>364</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -6838,22 +6883,22 @@
         <v>83</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D109" s="27">
+        <v>105</v>
+      </c>
+      <c r="D109" s="26">
         <v>4</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F109" s="20" t="s">
-        <v>372</v>
+        <v>323</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -6863,22 +6908,22 @@
         <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" s="27">
+        <v>105</v>
+      </c>
+      <c r="D110" s="26">
         <v>5</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>373</v>
+        <v>332</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -6888,22 +6933,22 @@
         <v>83</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" s="27">
+        <v>150</v>
+      </c>
+      <c r="D111" s="26">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>374</v>
+        <v>305</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>367</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -6913,25 +6958,25 @@
         <v>83</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D112" s="27">
+        <v>150</v>
+      </c>
+      <c r="D112" s="26">
         <v>6</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>375</v>
+        <v>308</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>368</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -6941,22 +6986,22 @@
         <v>83</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D113" s="27">
+        <v>150</v>
+      </c>
+      <c r="D113" s="26">
         <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>376</v>
+        <v>328</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -6966,22 +7011,22 @@
         <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" s="27">
+        <v>150</v>
+      </c>
+      <c r="D114" s="26">
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>377</v>
+        <v>329</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -6991,22 +7036,22 @@
         <v>83</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" s="27">
+        <v>150</v>
+      </c>
+      <c r="D115" s="26">
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>378</v>
+        <v>331</v>
+      </c>
+      <c r="F115" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -7016,22 +7061,22 @@
         <v>83</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" s="27">
+        <v>150</v>
+      </c>
+      <c r="D116" s="26">
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>341</v>
+        <v>335</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -7041,22 +7086,22 @@
         <v>83</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" s="26">
+        <v>104</v>
+      </c>
+      <c r="D117" s="25">
         <v>6</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>427</v>
+        <v>421</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>420</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -7069,41 +7114,43 @@
     <sortCondition ref="D2:D74"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H29" r:id="rId1" display="Live Sound Basics" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H27" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H28" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H40" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H44" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H41" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="H34" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H50" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H70" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H72" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H73" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H74" r:id="rId12" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="H75" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H76" r:id="rId14" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H77" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H78" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H79" r:id="rId17" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H80" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H81" r:id="rId19" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H82" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H83" r:id="rId21" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H86" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="H85" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H84" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H62" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H56" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="H71" r:id="rId27" xr:uid="{045D822F-D7EC-0843-BF87-B5E903B9062F}"/>
-    <hyperlink ref="H100" r:id="rId28" location="219259" xr:uid="{AD0D256B-219F-2F46-BC7F-4D31F0C183BB}"/>
-    <hyperlink ref="H101" r:id="rId29" location="218515" xr:uid="{807693E7-BD7A-3F4E-8C5A-771DA977A842}"/>
-    <hyperlink ref="H116" r:id="rId30" xr:uid="{90E05E38-9380-B544-977A-917E417A35EC}"/>
+    <hyperlink ref="H27" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H40" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H44" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H41" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H50" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H70" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H72" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H73" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H74" r:id="rId10" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H75" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H76" r:id="rId12" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="H77" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H78" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H79" r:id="rId15" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H80" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H81" r:id="rId17" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H82" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H83" r:id="rId19" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H86" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H85" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H84" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="H62" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="H71" r:id="rId25" xr:uid="{045D822F-D7EC-0843-BF87-B5E903B9062F}"/>
+    <hyperlink ref="H100" r:id="rId26" location="219259" xr:uid="{AD0D256B-219F-2F46-BC7F-4D31F0C183BB}"/>
+    <hyperlink ref="H101" r:id="rId27" location="218515" xr:uid="{807693E7-BD7A-3F4E-8C5A-771DA977A842}"/>
+    <hyperlink ref="H116" r:id="rId28" xr:uid="{90E05E38-9380-B544-977A-917E417A35EC}"/>
+    <hyperlink ref="H9" r:id="rId29" xr:uid="{28C22FCF-891D-FC46-A270-77A597C6A68D}"/>
+    <hyperlink ref="H20" r:id="rId30" xr:uid="{F1D20EC3-3B39-FE47-8432-F66F922A002D}"/>
+    <hyperlink ref="H28" r:id="rId31" xr:uid="{087418DA-D691-384C-B80A-E82EB3873D01}"/>
+    <hyperlink ref="H29" r:id="rId32" xr:uid="{3C2E9438-9BC0-BD42-B827-D43FEC60580D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7353,10 +7400,10 @@
       <c r="A2">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="12">
         <v>0.40138888888888885</v>
       </c>
     </row>
@@ -7365,9 +7412,9 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="13">
+        <v>229</v>
+      </c>
+      <c r="C3" s="12">
         <v>0.38472222222222219</v>
       </c>
     </row>
@@ -7375,10 +7422,10 @@
       <c r="A4">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="12">
         <v>0.3611111111111111</v>
       </c>
     </row>
@@ -7386,10 +7433,10 @@
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="12">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -7397,10 +7444,10 @@
       <c r="A6">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="12">
         <v>0.29305555555555557</v>
       </c>
     </row>
@@ -7408,10 +7455,10 @@
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="12">
         <v>0.25555555555555559</v>
       </c>
     </row>
@@ -7420,9 +7467,9 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="13">
+        <v>228</v>
+      </c>
+      <c r="C8" s="12">
         <v>0.25</v>
       </c>
     </row>
@@ -7430,10 +7477,10 @@
       <c r="A9">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="12">
         <v>0.23680555555555557</v>
       </c>
     </row>
@@ -7442,9 +7489,9 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="13">
+        <v>232</v>
+      </c>
+      <c r="C10" s="12">
         <v>0.19444444444444445</v>
       </c>
     </row>
@@ -7453,9 +7500,9 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="13">
+        <v>225</v>
+      </c>
+      <c r="C11" s="12">
         <v>0.17569444444444446</v>
       </c>
     </row>
@@ -7464,9 +7511,9 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="13">
+        <v>233</v>
+      </c>
+      <c r="C12" s="12">
         <v>0.11041666666666666</v>
       </c>
     </row>
@@ -7475,9 +7522,9 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="13">
+        <v>231</v>
+      </c>
+      <c r="C13" s="12">
         <v>0.43958333333333338</v>
       </c>
     </row>
@@ -7486,9 +7533,9 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="13">
+        <v>234</v>
+      </c>
+      <c r="C14" s="12">
         <v>0.4381944444444445</v>
       </c>
     </row>
@@ -7497,9 +7544,9 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="13">
+        <v>230</v>
+      </c>
+      <c r="C15" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -7508,9 +7555,9 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="13">
+        <v>235</v>
+      </c>
+      <c r="C16" s="12">
         <v>0.40277777777777773</v>
       </c>
     </row>
@@ -7519,9 +7566,9 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="13">
+        <v>226</v>
+      </c>
+      <c r="C17" s="12">
         <v>0.30416666666666664</v>
       </c>
     </row>
@@ -7530,9 +7577,9 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="13">
+        <v>243</v>
+      </c>
+      <c r="C18" s="12">
         <v>0.28611111111111115</v>
       </c>
     </row>
@@ -7541,40 +7588,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="13">
+        <v>242</v>
+      </c>
+      <c r="C19" s="12">
         <v>0.15069444444444444</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7610,10 +7657,10 @@
       <c r="A1">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="16">
+      <c r="B1" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="15">
         <v>0.24097222222222223</v>
       </c>
     </row>
@@ -7621,10 +7668,10 @@
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.31666666666666665</v>
       </c>
     </row>
@@ -7632,10 +7679,10 @@
       <c r="A3">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="15">
         <v>0.26527777777777778</v>
       </c>
     </row>
@@ -7643,10 +7690,10 @@
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="15">
         <v>0.29305555555555557</v>
       </c>
     </row>
@@ -7654,10 +7701,10 @@
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.26805555555555555</v>
       </c>
     </row>
@@ -7713,13 +7760,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/training_videos.xlsx
+++ b/data/training_videos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donert/Documents/UACTech/SystemDocumentation/github/uactechdoc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8F53F5-AC8C-7C40-9955-59E770E77A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA7D468-D6C0-FB49-81BB-0A79264C8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="18" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="491">
   <si>
     <t xml:space="preserve"> Arrangements  </t>
   </si>
@@ -310,12 +310,6 @@
     <t>Lighting@uac - DMX wiring on stage</t>
   </si>
   <si>
-    <t>*5</t>
-  </si>
-  <si>
-    <t>*12</t>
-  </si>
-  <si>
     <t>Livestreaming</t>
   </si>
   <si>
@@ -388,12 +382,6 @@
     <t>Lighting Design</t>
   </si>
   <si>
-    <t>01 Dante Level 1</t>
-  </si>
-  <si>
-    <t>02 Dante Level 2</t>
-  </si>
-  <si>
     <t>@uac</t>
   </si>
   <si>
@@ -1315,27 +1303,9 @@
     <t>Arrangements</t>
   </si>
   <si>
-    <t>https://youtu.be/XAxLB3zm6Hc?si=H1S1u4Y-VP59ouFz</t>
-  </si>
-  <si>
-    <t>https://youtu.be/se5L-S4IupQ?si=YmgVP-p9Hy_WIiPE</t>
-  </si>
-  <si>
     <t>https://youtu.be/ysn3l2efQLQ?si=4jOS3T3onxPdc4Dr</t>
   </si>
   <si>
-    <t>Dante Certification Intro</t>
-  </si>
-  <si>
-    <t>Dante Certification Intro Level 2</t>
-  </si>
-  <si>
-    <t>0:05:28</t>
-  </si>
-  <si>
-    <t>Live Sound System Signal Flow - Live Sound Basics</t>
-  </si>
-  <si>
     <t>0:33:56</t>
   </si>
   <si>
@@ -1346,13 +1316,217 @@
   </si>
   <si>
     <t>Need to find a video for this</t>
+  </si>
+  <si>
+    <t>02 Mixing</t>
+  </si>
+  <si>
+    <t>Live Sound System Signal Flow</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fcbF2s-h9qw?si=PvSmn8BTbhwZU8sy</t>
+  </si>
+  <si>
+    <t>Chapter 1: Who is Audinate &amp; What is Dante?</t>
+  </si>
+  <si>
+    <t>0:05:11</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4U4ijec81BM?si=amZiMVywvxJv15JX</t>
+  </si>
+  <si>
+    <t>Chapter 3: Network Solution vs. Digital Snake</t>
+  </si>
+  <si>
+    <t>0:07:40</t>
+  </si>
+  <si>
+    <t>Chapter 2: A Simple Demonstration</t>
+  </si>
+  <si>
+    <t>0:02:50</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4U4ijec81BM?si=nLnaSfSdy5hEvzSd</t>
+  </si>
+  <si>
+    <t>Chapter 6: Dante Ports &amp; Connections</t>
+  </si>
+  <si>
+    <t>0:07:04</t>
+  </si>
+  <si>
+    <t>https://youtu.be/97lopIIDAHw?si=eBhSsiTNp4zg5on5</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2ZmGlSQ4o3w?si=y1-skqDo_sHR3JYu</t>
+  </si>
+  <si>
+    <t>0:13:36</t>
+  </si>
+  <si>
+    <t>Chapter 7: Tour of Dante Controller</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DUVuld91idE?si=n1XC6fKU3MjsIwj9</t>
+  </si>
+  <si>
+    <t>Chapter 9: Dante is Standard Networking</t>
+  </si>
+  <si>
+    <t>0:19:34</t>
+  </si>
+  <si>
+    <t>Not on YouTube</t>
+  </si>
+  <si>
+    <t>Chapter 4: Basics of Digital Audio</t>
+  </si>
+  <si>
+    <t>Chapter 5: Basics of Digital Video</t>
+  </si>
+  <si>
+    <t>Chapter 8: Latency</t>
+  </si>
+  <si>
+    <t>Chapter 10: Dante Links to a Computer</t>
+  </si>
+  <si>
+    <t>Chapter 11: Conclusion</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>IP Address, Subnet Mask, Gateway</t>
+  </si>
+  <si>
+    <t>Helpful Networking Concepts</t>
+  </si>
+  <si>
+    <t>VLANs &amp; Trunk Lines</t>
+  </si>
+  <si>
+    <t>TCP vs. UDP</t>
+  </si>
+  <si>
+    <t>Unicast, Multicast &amp; Broadcast: Dante Flows</t>
+  </si>
+  <si>
+    <t>Quality of Service</t>
+  </si>
+  <si>
+    <t>Clocking (Layer 2)</t>
+  </si>
+  <si>
+    <t>Redundant Networks</t>
+  </si>
+  <si>
+    <t>Dante Presets</t>
+  </si>
+  <si>
+    <t>Device Lock</t>
+  </si>
+  <si>
+    <t>Firmware Updater</t>
+  </si>
+  <si>
+    <t>Basics of Dante Domain Manager</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Network Solution vs. Digital Automatic Addressing</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vCW1l536sXc?si=yJ0mREFljeWe_bjo</t>
+  </si>
+  <si>
+    <t>0:12:35</t>
+  </si>
+  <si>
+    <t>https://youtu.be/b5l3DXM450c?si=vmbAP-YnZA5KG9xh</t>
+  </si>
+  <si>
+    <t>0:11:59</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fI4yyhnc8Fg?si=cExpZ9wUQa4fJ60e</t>
+  </si>
+  <si>
+    <t>0:07:52</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pBkehGZBZcI?si=HAbL9WfyZfkSZxaR</t>
+  </si>
+  <si>
+    <t>0:24:49</t>
+  </si>
+  <si>
+    <t>0:08:36</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Q-zsMLZdJ6g?si=7Ra4lqfHUslpM3ca</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4LbjQgRK-us?si=uffZsLSRoqt-1Mim</t>
+  </si>
+  <si>
+    <t>0:04:37</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>ARP (Address Resolution Protocol)</t>
+  </si>
+  <si>
+    <t>Network Ports (IP Ports)</t>
+  </si>
+  <si>
+    <t>Tour of Network Connections &amp; Troubleshooting Tips</t>
+  </si>
+  <si>
+    <t>Layered Network Models (OSI Model)</t>
+  </si>
+  <si>
+    <t>Dante in a Layer 3 Environment &amp; Role of Dante Domain Manager</t>
+  </si>
+  <si>
+    <t>GPS Clocking</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7mNKIfyaBO0?si=XjE6Oi5uDJRcy9FD</t>
+  </si>
+  <si>
+    <t>0:02:11</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C5W7eesLn1s?si=Jvd7Rnv_CYLGFkkt</t>
+  </si>
+  <si>
+    <t>0:16:12</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8Vb1UH8LJXw?si=1bYyRvd8jVygEhYC</t>
+  </si>
+  <si>
+    <t>0:28:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1408,20 +1582,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFF1F1F1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1448,7 +1647,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1504,6 +1703,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1799,7 +2001,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1856,7 +2058,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1913,7 +2115,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1970,7 +2172,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2027,7 +2229,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2101,7 +2303,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Terry Doner" refreshedDate="43710.829900115743" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="96" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J117" sheet="training"/>
+    <worksheetSource ref="A1:J150" sheet="training"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Topic1" numFmtId="0">
@@ -3317,7 +3519,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -3424,8 +3626,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}" name="Table1" displayName="Table1" ref="A1:J117" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J117" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}" name="Table1" displayName="Table1" ref="A1:J150" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J150" xr:uid="{486948C8-A13F-A545-90E9-87DFED66A023}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{30A2E519-C016-EB48-A24E-8330D0AB56BC}" name="Topic1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA07A1A3-1ECF-354E-8740-D7891A39DCB5}" name="Topic2" dataDxfId="8"/>
@@ -3783,15 +3985,15 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -3806,20 +4008,20 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -3842,12 +4044,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3861,7 +4063,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -3884,7 +4086,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3901,12 +4103,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12">
         <v>22</v>
@@ -3939,10 +4141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3961,34 +4163,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D1" s="25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3996,10 +4198,10 @@
         <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="26">
         <v>1</v>
@@ -4009,10 +4211,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="H2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4020,10 +4222,10 @@
         <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="26">
         <v>2</v>
@@ -4033,10 +4235,10 @@
       </c>
       <c r="F3" s="5"/>
       <c r="H3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4044,10 +4246,10 @@
         <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="26">
         <v>3</v>
@@ -4057,10 +4259,10 @@
       </c>
       <c r="F4" s="5"/>
       <c r="H4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4068,10 +4270,10 @@
         <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="26">
         <v>4</v>
@@ -4081,10 +4283,10 @@
       </c>
       <c r="F5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4092,10 +4294,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" s="26">
         <v>5</v>
@@ -4105,10 +4307,10 @@
       </c>
       <c r="F6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4116,10 +4318,10 @@
         <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="26">
         <v>6</v>
@@ -4129,10 +4331,10 @@
       </c>
       <c r="F7" s="5"/>
       <c r="H7" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4140,23 +4342,23 @@
         <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4164,28 +4366,28 @@
         <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D9" s="26">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4193,28 +4395,28 @@
         <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D10" s="26">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4222,28 +4424,28 @@
         <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D11" s="26">
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4251,28 +4453,28 @@
         <v>84</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D12" s="26">
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -4280,28 +4482,28 @@
         <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D13" s="26">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -4309,28 +4511,28 @@
         <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D14" s="26">
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -4338,25 +4540,25 @@
         <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D15" s="26">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -4364,25 +4566,25 @@
         <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D16" s="26">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -4390,28 +4592,28 @@
         <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D17" s="26">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -4419,25 +4621,25 @@
         <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D18" s="26">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -4445,25 +4647,25 @@
         <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D19" s="26">
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -4471,25 +4673,25 @@
         <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D20" s="26">
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -4497,22 +4699,22 @@
         <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D21" s="26">
         <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4522,22 +4724,22 @@
         <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D22" s="26">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -4547,22 +4749,22 @@
         <v>84</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D23" s="26">
         <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -4572,22 +4774,22 @@
         <v>84</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D24" s="26">
         <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -4597,22 +4799,22 @@
         <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D25" s="26">
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -4622,19 +4824,19 @@
         <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
       <c r="D26" s="26">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -4644,77 +4846,25 @@
         <v>84</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="26">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4722,10 +4872,10 @@
         <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="25">
         <v>1</v>
@@ -4735,10 +4885,10 @@
       </c>
       <c r="F30" s="3"/>
       <c r="H30" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -4746,10 +4896,10 @@
         <v>72</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" s="25">
         <v>2</v>
@@ -4759,10 +4909,10 @@
       </c>
       <c r="F31" s="5"/>
       <c r="H31" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -4770,28 +4920,28 @@
         <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="25">
         <v>1</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4799,28 +4949,28 @@
         <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="25">
         <v>2</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4828,29 +4978,29 @@
         <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="25">
         <v>3</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4858,28 +5008,28 @@
         <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="25">
         <v>4</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -4887,28 +5037,28 @@
         <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D36" s="25">
         <v>3</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -4916,31 +5066,31 @@
         <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" s="25">
         <v>5</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -4948,31 +5098,31 @@
         <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D38" s="25">
         <v>1</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4980,31 +5130,31 @@
         <v>72</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D39" s="25">
         <v>2</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -5012,31 +5162,31 @@
         <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D40" s="25">
         <v>3</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -5044,28 +5194,28 @@
         <v>72</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D41" s="25">
         <v>1</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -5073,28 +5223,28 @@
         <v>72</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D42" s="25">
         <v>2</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -5102,28 +5252,28 @@
         <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D43" s="25">
         <v>4</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -5131,28 +5281,28 @@
         <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D44" s="25">
         <v>5</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -5160,28 +5310,28 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D45" s="25">
         <v>6</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -5189,28 +5339,28 @@
         <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D46" s="25">
         <v>7</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5218,28 +5368,28 @@
         <v>72</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D47" s="25">
         <v>8</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5247,28 +5397,28 @@
         <v>72</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D48" s="25">
         <v>9</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5276,28 +5426,28 @@
         <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D49" s="25">
         <v>10</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5305,28 +5455,28 @@
         <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D50" s="25">
         <v>11</v>
       </c>
       <c r="E50" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G50" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5334,28 +5484,28 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D51" s="25">
         <v>12</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G51" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5363,7 +5513,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3">
         <v>4</v>
@@ -5373,13 +5523,13 @@
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5387,7 +5537,7 @@
         <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="25">
         <v>1</v>
@@ -5395,13 +5545,13 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5409,28 +5559,28 @@
         <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D54" s="25">
         <v>1</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5438,28 +5588,28 @@
         <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D55" s="25">
         <v>2</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5467,28 +5617,28 @@
         <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D56" s="25">
         <v>3</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5496,28 +5646,28 @@
         <v>72</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" s="25">
         <v>4</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5525,194 +5675,194 @@
         <v>72</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D58" s="25">
         <v>5</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D59" s="26"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D60" s="26">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D61" s="26">
         <v>2</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F61" s="5"/>
       <c r="H61" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D62" s="26">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D63" s="26">
         <v>2</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D64" s="26">
         <v>3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -5720,10 +5870,10 @@
         <v>83</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D65" s="26">
         <v>1</v>
@@ -5733,10 +5883,10 @@
       </c>
       <c r="F65" s="5"/>
       <c r="H65" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -5744,10 +5894,10 @@
         <v>83</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D66" s="26">
         <v>2</v>
@@ -5757,10 +5907,10 @@
       </c>
       <c r="F66" s="5"/>
       <c r="H66" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -5768,10 +5918,10 @@
         <v>83</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D67" s="26">
         <v>3</v>
@@ -5781,10 +5931,10 @@
       </c>
       <c r="F67" s="5"/>
       <c r="H67" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -5792,10 +5942,10 @@
         <v>83</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D68" s="26">
         <v>4</v>
@@ -5805,10 +5955,10 @@
       </c>
       <c r="F68" s="5"/>
       <c r="H68" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5816,10 +5966,10 @@
         <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D69" s="26">
         <v>5</v>
@@ -5829,10 +5979,10 @@
       </c>
       <c r="F69" s="5"/>
       <c r="H69" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -5840,10 +5990,10 @@
         <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D70" s="26">
         <v>1</v>
@@ -5852,16 +6002,16 @@
         <v>14</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -5869,10 +6019,10 @@
         <v>83</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D71" s="26">
         <v>2</v>
@@ -5881,16 +6031,16 @@
         <v>15</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -5898,10 +6048,10 @@
         <v>83</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D72" s="26">
         <v>3</v>
@@ -5910,19 +6060,19 @@
         <v>1</v>
       </c>
       <c r="F72" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -5930,10 +6080,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D73" s="26">
         <v>4</v>
@@ -5942,19 +6092,19 @@
         <v>4</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -5962,10 +6112,10 @@
         <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D74" s="26">
         <v>5</v>
@@ -5974,16 +6124,16 @@
         <v>0</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -5991,10 +6141,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D75" s="26">
         <v>6</v>
@@ -6003,16 +6153,16 @@
         <v>8</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -6020,10 +6170,10 @@
         <v>83</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D76" s="26">
         <v>7</v>
@@ -6032,19 +6182,19 @@
         <v>12</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -6052,10 +6202,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D77" s="26">
         <v>8</v>
@@ -6064,16 +6214,16 @@
         <v>16</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -6081,10 +6231,10 @@
         <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D78" s="26">
         <v>9</v>
@@ -6093,19 +6243,19 @@
         <v>9</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -6113,10 +6263,10 @@
         <v>83</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D79" s="26">
         <v>10</v>
@@ -6125,16 +6275,16 @@
         <v>10</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -6142,10 +6292,10 @@
         <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D80" s="26">
         <v>1</v>
@@ -6154,16 +6304,16 @@
         <v>6</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -6171,28 +6321,28 @@
         <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D81" s="26">
         <v>3</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -6200,10 +6350,10 @@
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D82" s="26">
         <v>4</v>
@@ -6212,16 +6362,16 @@
         <v>7</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -6229,10 +6379,10 @@
         <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D83" s="26">
         <v>5</v>
@@ -6241,16 +6391,16 @@
         <v>11</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -6258,10 +6408,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D84" s="26">
         <v>6</v>
@@ -6270,16 +6420,16 @@
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -6287,10 +6437,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" s="26">
         <v>7</v>
@@ -6299,16 +6449,16 @@
         <v>5</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -6316,10 +6466,10 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D86" s="26">
         <v>8</v>
@@ -6328,16 +6478,16 @@
         <v>3</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -6345,10 +6495,10 @@
         <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D87" s="26">
         <v>1</v>
@@ -6358,10 +6508,10 @@
       </c>
       <c r="F87" s="7"/>
       <c r="H87" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J87" s="3"/>
     </row>
@@ -6370,10 +6520,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D88" s="26">
         <v>2</v>
@@ -6383,10 +6533,10 @@
       </c>
       <c r="F88" s="7"/>
       <c r="H88" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J88" s="3"/>
     </row>
@@ -6395,10 +6545,10 @@
         <v>79</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D89" s="26">
         <v>3</v>
@@ -6408,10 +6558,10 @@
       </c>
       <c r="F89" s="7"/>
       <c r="H89" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J89" s="3"/>
     </row>
@@ -6420,20 +6570,20 @@
         <v>79</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D90" s="26">
         <v>1</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J90" s="3"/>
     </row>
@@ -6442,17 +6592,17 @@
         <v>79</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D91" s="26">
         <v>2</v>
       </c>
       <c r="F91" s="3"/>
       <c r="H91" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J91" s="3"/>
     </row>
@@ -6461,7 +6611,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D92" s="26">
         <v>3</v>
@@ -6469,10 +6619,10 @@
       <c r="F92" s="3"/>
       <c r="G92" s="5"/>
       <c r="H92" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J92" s="3"/>
     </row>
@@ -6481,20 +6631,20 @@
         <v>79</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D93" s="26">
         <v>1</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -6502,29 +6652,29 @@
         <v>79</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D94" s="26">
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -6532,29 +6682,29 @@
         <v>79</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D95" s="26">
         <v>2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -6562,16 +6712,16 @@
         <v>79</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D96" s="26"/>
       <c r="F96" s="3"/>
       <c r="G96" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -6579,26 +6729,26 @@
         <v>83</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D97" s="26">
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F97" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>297</v>
-      </c>
       <c r="H97" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -6606,26 +6756,26 @@
         <v>83</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D98" s="26">
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -6633,22 +6783,22 @@
         <v>83</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D99" s="26">
         <v>2</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -6658,22 +6808,22 @@
         <v>83</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D100" s="26">
         <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -6683,22 +6833,22 @@
         <v>83</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D101" s="26">
         <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -6708,22 +6858,22 @@
         <v>83</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D102" s="26">
         <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -6733,22 +6883,22 @@
         <v>83</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D103" s="26">
         <v>5</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -6758,22 +6908,22 @@
         <v>83</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D104" s="26">
         <v>7</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -6783,22 +6933,22 @@
         <v>83</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D105" s="26">
         <v>6</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -6808,22 +6958,22 @@
         <v>83</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D106" s="26">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -6833,22 +6983,22 @@
         <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D107" s="26">
         <v>2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -6858,22 +7008,22 @@
         <v>83</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D108" s="26">
         <v>3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -6883,22 +7033,22 @@
         <v>83</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D109" s="26">
         <v>4</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -6908,22 +7058,22 @@
         <v>83</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D110" s="26">
         <v>5</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -6933,22 +7083,22 @@
         <v>83</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D111" s="26">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -6958,25 +7108,25 @@
         <v>83</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D112" s="26">
         <v>6</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -6986,22 +7136,22 @@
         <v>83</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D113" s="26">
         <v>2</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -7011,22 +7161,22 @@
         <v>83</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D114" s="26">
         <v>3</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -7036,22 +7186,22 @@
         <v>83</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D115" s="26">
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -7061,22 +7211,22 @@
         <v>83</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D116" s="26">
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -7086,25 +7236,815 @@
         <v>83</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D117" s="25">
         <v>6</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D118" s="25">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="G118" s="27"/>
+      <c r="H118" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D119" s="25">
+        <v>2</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D120" s="25">
+        <v>3</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D121" s="25">
+        <v>6</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" s="25">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123" s="25">
+        <v>9</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D124" s="25">
+        <v>4</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D125" s="25">
+        <v>5</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D126" s="25">
+        <v>8</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D127" s="25">
+        <v>10</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D128" s="25">
+        <v>11</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D129" s="25">
+        <v>1</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D130" s="25">
+        <v>2</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D131" s="25">
+        <v>3</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D132" s="25">
+        <v>4</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D133" s="25">
+        <v>5</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D134" s="25">
+        <v>6</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D135" s="25">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D136" s="25">
+        <v>8</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D137" s="25">
+        <v>9</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D138" s="25">
+        <v>10</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D139" s="25">
+        <v>11</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D140" s="25">
+        <v>12</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G140" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D141" s="25">
+        <v>13</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F141" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D142" s="25">
+        <v>14</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G142" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D143" s="25">
+        <v>1</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D144" s="25">
+        <v>2</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G144" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D145" s="25">
+        <v>3</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G145" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D146" s="25">
+        <v>4</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F146" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D147" s="25">
+        <v>5</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G147" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D148" s="25">
+        <v>6</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D149" s="25">
+        <v>7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G149" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D150" s="25">
+        <v>8</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G150" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
@@ -7114,43 +8054,42 @@
     <sortCondition ref="D2:D74"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H27" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H40" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H44" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H41" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="H34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H50" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H70" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H72" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="H73" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H74" r:id="rId10" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="H75" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H76" r:id="rId12" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="H77" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H78" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H79" r:id="rId15" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H80" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H81" r:id="rId17" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H82" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H83" r:id="rId19" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="H86" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="H85" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="H84" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="H62" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="H56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="H71" r:id="rId25" xr:uid="{045D822F-D7EC-0843-BF87-B5E903B9062F}"/>
-    <hyperlink ref="H100" r:id="rId26" location="219259" xr:uid="{AD0D256B-219F-2F46-BC7F-4D31F0C183BB}"/>
-    <hyperlink ref="H101" r:id="rId27" location="218515" xr:uid="{807693E7-BD7A-3F4E-8C5A-771DA977A842}"/>
-    <hyperlink ref="H116" r:id="rId28" xr:uid="{90E05E38-9380-B544-977A-917E417A35EC}"/>
-    <hyperlink ref="H9" r:id="rId29" xr:uid="{28C22FCF-891D-FC46-A270-77A597C6A68D}"/>
-    <hyperlink ref="H20" r:id="rId30" xr:uid="{F1D20EC3-3B39-FE47-8432-F66F922A002D}"/>
-    <hyperlink ref="H28" r:id="rId31" xr:uid="{087418DA-D691-384C-B80A-E82EB3873D01}"/>
-    <hyperlink ref="H29" r:id="rId32" xr:uid="{3C2E9438-9BC0-BD42-B827-D43FEC60580D}"/>
+    <hyperlink ref="H40" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H44" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H41" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H34" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H50" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H70" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H72" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H73" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H74" r:id="rId9" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H75" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H76" r:id="rId11" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="H77" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H78" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H79" r:id="rId14" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H80" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H81" r:id="rId16" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H82" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H83" r:id="rId18" tooltip="Share link" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H86" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H85" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H84" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="H62" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H56" r:id="rId23" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="H71" r:id="rId24" xr:uid="{045D822F-D7EC-0843-BF87-B5E903B9062F}"/>
+    <hyperlink ref="H100" r:id="rId25" location="219259" xr:uid="{AD0D256B-219F-2F46-BC7F-4D31F0C183BB}"/>
+    <hyperlink ref="H101" r:id="rId26" location="218515" xr:uid="{807693E7-BD7A-3F4E-8C5A-771DA977A842}"/>
+    <hyperlink ref="H116" r:id="rId27" xr:uid="{90E05E38-9380-B544-977A-917E417A35EC}"/>
+    <hyperlink ref="H9" r:id="rId28" xr:uid="{28C22FCF-891D-FC46-A270-77A597C6A68D}"/>
+    <hyperlink ref="H20" r:id="rId29" xr:uid="{F1D20EC3-3B39-FE47-8432-F66F922A002D}"/>
+    <hyperlink ref="H27" r:id="rId30" xr:uid="{3C2E9438-9BC0-BD42-B827-D43FEC60580D}"/>
+    <hyperlink ref="E124" r:id="rId31" display="https://www.audinate.com/" xr:uid="{385DD72E-75A7-9145-899D-CE53E5BB05DC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7401,7 +8340,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C2" s="12">
         <v>0.40138888888888885</v>
@@ -7412,7 +8351,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C3" s="12">
         <v>0.38472222222222219</v>
@@ -7423,7 +8362,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C4" s="12">
         <v>0.3611111111111111</v>
@@ -7434,7 +8373,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C5" s="12">
         <v>0.33333333333333331</v>
@@ -7445,7 +8384,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C6" s="12">
         <v>0.29305555555555557</v>
@@ -7456,7 +8395,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C7" s="12">
         <v>0.25555555555555559</v>
@@ -7467,7 +8406,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C8" s="12">
         <v>0.25</v>
@@ -7478,7 +8417,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C9" s="12">
         <v>0.23680555555555557</v>
@@ -7489,7 +8428,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C10" s="12">
         <v>0.19444444444444445</v>
@@ -7500,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" s="12">
         <v>0.17569444444444446</v>
@@ -7511,7 +8450,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C12" s="12">
         <v>0.11041666666666666</v>
@@ -7522,7 +8461,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C13" s="12">
         <v>0.43958333333333338</v>
@@ -7533,7 +8472,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C14" s="12">
         <v>0.4381944444444445</v>
@@ -7544,7 +8483,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C15" s="12">
         <v>7.4999999999999997E-2</v>
@@ -7555,7 +8494,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C16" s="12">
         <v>0.40277777777777773</v>
@@ -7566,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C17" s="12">
         <v>0.30416666666666664</v>
@@ -7577,7 +8516,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C18" s="12">
         <v>0.28611111111111115</v>
@@ -7588,7 +8527,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C19" s="12">
         <v>0.15069444444444444</v>
@@ -7596,32 +8535,32 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7658,7 +8597,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C1" s="15">
         <v>0.24097222222222223</v>
@@ -7669,7 +8608,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C2" s="15">
         <v>0.31666666666666665</v>
@@ -7680,7 +8619,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C3" s="15">
         <v>0.26527777777777778</v>
@@ -7691,7 +8630,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="15">
         <v>0.29305555555555557</v>
@@ -7702,7 +8641,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C5" s="15">
         <v>0.26805555555555555</v>
@@ -7760,13 +8699,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B1">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
